--- a/SimulationStudyData/Model5/SimCase29_Yobs_SimRun3.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Yobs_SimRun3.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.05812368948208</v>
+        <v>10.0530820144518</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6277341900667</v>
+        <v>11.0582210806477</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5261477564278</v>
+        <v>12.6580234218493</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9870361037355</v>
+        <v>13.3050978087497</v>
       </c>
       <c r="E2" t="n">
-        <v>14.386795339516</v>
+        <v>14.0747184023522</v>
       </c>
       <c r="F2" t="n">
-        <v>14.4285659555989</v>
+        <v>13.7847179637608</v>
       </c>
       <c r="G2" t="n">
-        <v>17.0697571623722</v>
+        <v>15.7903118181894</v>
       </c>
       <c r="H2" t="n">
-        <v>17.9435529558485</v>
+        <v>16.7096977123824</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4316740482764</v>
+        <v>17.2756485876868</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.95223722862448</v>
+        <v>18.2339196066493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.2697656282691</v>
+        <v>7.70861719524132</v>
       </c>
       <c r="B3" t="n">
-        <v>10.6308611865283</v>
+        <v>11.3283873846339</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0975204050815</v>
+        <v>12.5473523405651</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.37330269027415</v>
+        <v>-6.34327172684403</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.73760164480345</v>
+        <v>-6.88113468136469</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.26227165340832</v>
+        <v>-7.43037279363911</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.33922234779387</v>
+        <v>-8.22180377497469</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.92565976867893</v>
+        <v>-8.77373755012826</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.84987202173484</v>
+        <v>-8.93222868008493</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.7469721958326</v>
+        <v>-9.48353980664772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.26690266697532</v>
+        <v>9.10698957259016</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.85564675770317</v>
+        <v>11.4099938788391</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.96657294856882</v>
+        <v>12.9485519015761</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.67718301512581</v>
+        <v>-6.46024040421351</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.67114438198673</v>
+        <v>-7.03883842835498</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.22251232630024</v>
+        <v>-7.22155593849942</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.89024790785595</v>
+        <v>-8.27286448124016</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.3303836992044</v>
+        <v>-8.6204331196485</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.63483748465509</v>
+        <v>-8.91800934559061</v>
       </c>
       <c r="J4" t="n">
-        <v>17.8932609143923</v>
+        <v>-9.31499777781673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.8055794540598</v>
+        <v>10.6094488941209</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1445427325515</v>
+        <v>10.812913347561</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1110202357146</v>
+        <v>11.3288887163917</v>
       </c>
       <c r="D5" t="n">
-        <v>13.3118584922785</v>
+        <v>12.8478655714792</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1810517343955</v>
+        <v>15.4666867483526</v>
       </c>
       <c r="F5" t="n">
-        <v>13.8419063277813</v>
+        <v>14.1342208413996</v>
       </c>
       <c r="G5" t="n">
-        <v>16.4416090005409</v>
+        <v>15.9580115558096</v>
       </c>
       <c r="H5" t="n">
-        <v>17.0008219134853</v>
+        <v>16.0840928047145</v>
       </c>
       <c r="I5" t="n">
-        <v>16.8109750431864</v>
+        <v>17.8213590550134</v>
       </c>
       <c r="J5" t="n">
-        <v>18.9895089384449</v>
+        <v>-9.09564498823589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0023253512181</v>
+        <v>9.39559077997065</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.49283294456324</v>
+        <v>-4.97304011473141</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.79825325815083</v>
+        <v>-5.64014679273216</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.15334729707352</v>
+        <v>-6.71877422948467</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.86537172849631</v>
+        <v>-7.15567878220653</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.58368893647089</v>
+        <v>15.7491665583891</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.28172025109001</v>
+        <v>15.5381068886863</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.06434822892939</v>
+        <v>-8.31778964195725</v>
       </c>
       <c r="I6" t="n">
-        <v>-9.23502518156336</v>
+        <v>-8.8661481870119</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.60714787275463</v>
+        <v>-9.82101814876246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.90449035662612</v>
+        <v>-5.69415920331817</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.6068273913141</v>
+        <v>-5.38100638492814</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.88108337978428</v>
+        <v>-5.7619942394396</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.57483090570591</v>
+        <v>-6.61385674557591</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.56740422423106</v>
+        <v>-6.83837039756419</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.58150178152662</v>
+        <v>15.3048272242916</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.05545947311737</v>
+        <v>15.9005357646932</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.20797318507421</v>
+        <v>16.5910651017421</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.17540436237634</v>
+        <v>17.417716800356</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.5840213999145</v>
+        <v>19.6162666516201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.81719713313183</v>
+        <v>-4.84235087935193</v>
       </c>
       <c r="B8" t="n">
-        <v>11.100343349035</v>
+        <v>-5.58848220363567</v>
       </c>
       <c r="C8" t="n">
-        <v>11.4299836016347</v>
+        <v>-6.03818470816879</v>
       </c>
       <c r="D8" t="n">
-        <v>13.4195914649466</v>
+        <v>-6.53119228794505</v>
       </c>
       <c r="E8" t="n">
-        <v>14.2720168144959</v>
+        <v>-7.0538578567017</v>
       </c>
       <c r="F8" t="n">
-        <v>14.9565854139188</v>
+        <v>-7.79831132525656</v>
       </c>
       <c r="G8" t="n">
-        <v>15.8014513793673</v>
+        <v>-8.07132503759557</v>
       </c>
       <c r="H8" t="n">
-        <v>15.6471892457503</v>
+        <v>-8.34204827613401</v>
       </c>
       <c r="I8" t="n">
-        <v>18.023851095221</v>
+        <v>-8.74594348747498</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.56191416252585</v>
+        <v>-9.64914823209767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.74250739918328</v>
+        <v>-4.99032602853509</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.0928063579647</v>
+        <v>-5.41014719644455</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.6050521245886</v>
+        <v>-5.65936945308025</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.56355371442548</v>
+        <v>-6.66705602436619</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.9484750648073</v>
+        <v>-6.80256993441386</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.63917756351223</v>
+        <v>-7.87377278548984</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.80807996549748</v>
+        <v>-8.49912373002206</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.77128366649982</v>
+        <v>-8.35674684449945</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.66645555857226</v>
+        <v>-8.88487495643757</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.20060227801076</v>
+        <v>-9.50601535053329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.95562732940957</v>
+        <v>-5.3826301712901</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.84410603763952</v>
+        <v>-5.16819831817681</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.75377302551194</v>
+        <v>-6.09365544744981</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.42276416378167</v>
+        <v>-6.42654603536412</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.70643071960578</v>
+        <v>-7.03353463973304</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.61082726830667</v>
+        <v>-7.44352284181031</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.2057045171665</v>
+        <v>-7.71003568564822</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.4654223033486</v>
+        <v>-8.11048042243725</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.05893180914105</v>
+        <v>-8.97075511099824</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.55765634203466</v>
+        <v>-9.86547979411102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.85134901117329</v>
+        <v>9.84630483156916</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.29067901186645</v>
+        <v>11.3023797755722</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.68501193385332</v>
+        <v>12.4626820203154</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.38250749140626</v>
+        <v>14.1262434990234</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.64586455961915</v>
+        <v>13.2468437161222</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.01452677164457</v>
+        <v>16.0252988533617</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.66636736118582</v>
+        <v>15.7232910246185</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.76241635554829</v>
+        <v>17.2475834690522</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.14582360981069</v>
+        <v>17.3963403663089</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.53503425143115</v>
+        <v>20.0924803285084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.83368795865261</v>
+        <v>-4.92930779884343</v>
       </c>
       <c r="B12" t="n">
-        <v>11.7839735581343</v>
+        <v>-5.43293962489362</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4780934567365</v>
+        <v>-6.15351000118081</v>
       </c>
       <c r="D12" t="n">
-        <v>13.0143759311507</v>
+        <v>-6.79155007385047</v>
       </c>
       <c r="E12" t="n">
-        <v>14.5599355682638</v>
+        <v>-6.85984324955604</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.15432793822542</v>
+        <v>-7.67320952191227</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.73950546318436</v>
+        <v>-8.08320458758003</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.91352830308837</v>
+        <v>-8.46711815719811</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.82251773671221</v>
+        <v>-9.21843883123134</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.62653667078309</v>
+        <v>-9.98959003368802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.0285838280237</v>
+        <v>10.4528769939855</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6539432239337</v>
+        <v>10.9103702901178</v>
       </c>
       <c r="C13" t="n">
-        <v>13.0530732999189</v>
+        <v>10.9781244932954</v>
       </c>
       <c r="D13" t="n">
-        <v>14.5144450681337</v>
+        <v>11.8266701516618</v>
       </c>
       <c r="E13" t="n">
-        <v>13.9726563115139</v>
+        <v>14.4438167906998</v>
       </c>
       <c r="F13" t="n">
-        <v>14.3026857224074</v>
+        <v>15.0413265222891</v>
       </c>
       <c r="G13" t="n">
-        <v>14.3335855515536</v>
+        <v>16.2169826823948</v>
       </c>
       <c r="H13" t="n">
-        <v>18.3935037113078</v>
+        <v>16.4825070804021</v>
       </c>
       <c r="I13" t="n">
-        <v>16.4560771818563</v>
+        <v>18.2010023282615</v>
       </c>
       <c r="J13" t="n">
-        <v>19.8851650032477</v>
+        <v>17.72258790069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.89811200895969</v>
+        <v>-5.05023547844087</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5951438172481</v>
+        <v>-5.21117944914887</v>
       </c>
       <c r="C14" t="n">
-        <v>11.9374206975019</v>
+        <v>-5.69964585035803</v>
       </c>
       <c r="D14" t="n">
-        <v>12.5260333679454</v>
+        <v>-6.54158943253746</v>
       </c>
       <c r="E14" t="n">
-        <v>13.0352882653247</v>
+        <v>-7.11748848837896</v>
       </c>
       <c r="F14" t="n">
-        <v>15.3990816482839</v>
+        <v>-7.39096827089632</v>
       </c>
       <c r="G14" t="n">
-        <v>14.7329594697812</v>
+        <v>-7.71860720493479</v>
       </c>
       <c r="H14" t="n">
-        <v>18.0890159683507</v>
+        <v>-8.22827921801948</v>
       </c>
       <c r="I14" t="n">
-        <v>17.8232022557011</v>
+        <v>-8.8004096223215</v>
       </c>
       <c r="J14" t="n">
-        <v>19.2318338349738</v>
+        <v>-9.51066702424292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.58831635862508</v>
+        <v>-4.98765113578439</v>
       </c>
       <c r="B15" t="n">
-        <v>10.3948543586993</v>
+        <v>-5.5328683288265</v>
       </c>
       <c r="C15" t="n">
-        <v>14.339829443924</v>
+        <v>-6.10069692248749</v>
       </c>
       <c r="D15" t="n">
-        <v>13.6373071727537</v>
+        <v>-6.36486747562484</v>
       </c>
       <c r="E15" t="n">
-        <v>12.0241322489171</v>
+        <v>-7.0872576696385</v>
       </c>
       <c r="F15" t="n">
-        <v>13.6830823804608</v>
+        <v>-7.63964685730481</v>
       </c>
       <c r="G15" t="n">
-        <v>16.008610098055</v>
+        <v>-7.93540875451167</v>
       </c>
       <c r="H15" t="n">
-        <v>16.8245802513239</v>
+        <v>-8.36288341004709</v>
       </c>
       <c r="I15" t="n">
-        <v>18.3912313096478</v>
+        <v>-9.25040644374626</v>
       </c>
       <c r="J15" t="n">
-        <v>19.2508641579012</v>
+        <v>-9.53649989763978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.10223657747891</v>
+        <v>-5.05220315716578</v>
       </c>
       <c r="B16" t="n">
-        <v>11.7897193177248</v>
+        <v>-5.69858153413001</v>
       </c>
       <c r="C16" t="n">
-        <v>12.0988540480823</v>
+        <v>-6.05273559328986</v>
       </c>
       <c r="D16" t="n">
-        <v>13.0769653705078</v>
+        <v>-6.51613599393198</v>
       </c>
       <c r="E16" t="n">
-        <v>14.4089213244133</v>
+        <v>-6.78731992651992</v>
       </c>
       <c r="F16" t="n">
-        <v>14.6815448517638</v>
+        <v>-7.23747079192015</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0468186096238</v>
+        <v>-8.40977147949083</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.40778110889501</v>
+        <v>-8.53221496547885</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.68548577508681</v>
+        <v>-8.74371793064291</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.33468356968264</v>
+        <v>-9.44130248407812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.2475752924607</v>
+        <v>-4.94880717710785</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2484747124973</v>
+        <v>-5.28578214440579</v>
       </c>
       <c r="C17" t="n">
-        <v>12.5611265714142</v>
+        <v>-5.89840582798836</v>
       </c>
       <c r="D17" t="n">
-        <v>13.8583785030146</v>
+        <v>-6.54073311041385</v>
       </c>
       <c r="E17" t="n">
-        <v>14.5092578319146</v>
+        <v>-6.93316499669883</v>
       </c>
       <c r="F17" t="n">
-        <v>16.2197304632631</v>
+        <v>-8.02298148381422</v>
       </c>
       <c r="G17" t="n">
-        <v>14.9104142441605</v>
+        <v>-7.99294896632495</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.60946480027751</v>
+        <v>-8.49413209573589</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.93310060653719</v>
+        <v>-8.43116768074385</v>
       </c>
       <c r="J17" t="n">
-        <v>-8.94760530435709</v>
+        <v>-9.55536256396265</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.18267277369879</v>
+        <v>10.7050465206876</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.25516711454059</v>
+        <v>10.2851700066808</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.71341571742891</v>
+        <v>11.5701742929311</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.51978932870417</v>
+        <v>13.0048308914336</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.15193865016661</v>
+        <v>14.2473600482552</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.64328687687689</v>
+        <v>14.1258129098974</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.76767244293999</v>
+        <v>17.5818169765447</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.96627771366354</v>
+        <v>15.5803934356216</v>
       </c>
       <c r="I18" t="n">
-        <v>-9.0958033301341</v>
+        <v>18.542751371454</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.47776288505091</v>
+        <v>19.9072289612215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.4369215038566</v>
+        <v>10.4057061664347</v>
       </c>
       <c r="B19" t="n">
-        <v>12.044673263921</v>
+        <v>10.295357493613</v>
       </c>
       <c r="C19" t="n">
-        <v>11.1797238041296</v>
+        <v>12.2225912637373</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1895746182266</v>
+        <v>13.2114854471752</v>
       </c>
       <c r="E19" t="n">
-        <v>14.637601752432</v>
+        <v>15.3896514536127</v>
       </c>
       <c r="F19" t="n">
-        <v>16.0428579042031</v>
+        <v>15.4652244987891</v>
       </c>
       <c r="G19" t="n">
-        <v>15.6816813592279</v>
+        <v>17.6372583160436</v>
       </c>
       <c r="H19" t="n">
-        <v>17.6481714405981</v>
+        <v>16.4329231271378</v>
       </c>
       <c r="I19" t="n">
-        <v>18.1869134151442</v>
+        <v>17.7282552667444</v>
       </c>
       <c r="J19" t="n">
-        <v>17.6220263032872</v>
+        <v>20.1062347056714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.3545121273419</v>
+        <v>-4.73465529412112</v>
       </c>
       <c r="B20" t="n">
-        <v>11.821447425377</v>
+        <v>-5.27255770986609</v>
       </c>
       <c r="C20" t="n">
-        <v>11.0722797669841</v>
+        <v>-5.73194334995618</v>
       </c>
       <c r="D20" t="n">
-        <v>13.5277530921702</v>
+        <v>-6.34981729540922</v>
       </c>
       <c r="E20" t="n">
-        <v>14.1407098019708</v>
+        <v>-7.25916722777984</v>
       </c>
       <c r="F20" t="n">
-        <v>15.3442678763433</v>
+        <v>-7.7092803146042</v>
       </c>
       <c r="G20" t="n">
-        <v>16.0881944515796</v>
+        <v>-7.87242536198186</v>
       </c>
       <c r="H20" t="n">
-        <v>18.7910433493749</v>
+        <v>-8.05905463267875</v>
       </c>
       <c r="I20" t="n">
-        <v>18.6890778418633</v>
+        <v>-9.30053663313402</v>
       </c>
       <c r="J20" t="n">
-        <v>20.0130375269109</v>
+        <v>-9.32446050523531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.79304277059442</v>
+        <v>10.3337552056857</v>
       </c>
       <c r="B21" t="n">
-        <v>11.7892389609332</v>
+        <v>10.8366100531914</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.87186515699829</v>
+        <v>13.2459408147636</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.54152213515404</v>
+        <v>12.4642519839597</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.92161835548263</v>
+        <v>14.1028438487943</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.74883366246584</v>
+        <v>-7.44615006839974</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.79805997179132</v>
+        <v>-7.8455649656905</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.38003990450075</v>
+        <v>-8.25456886284856</v>
       </c>
       <c r="I21" t="n">
-        <v>-9.29324736707303</v>
+        <v>-8.73364716145453</v>
       </c>
       <c r="J21" t="n">
-        <v>-9.19936859033542</v>
+        <v>-9.50580202278083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.9772788057156</v>
+        <v>-5.26104267155806</v>
       </c>
       <c r="B22" t="n">
-        <v>11.7121912771416</v>
+        <v>-5.92425978818793</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5248926411473</v>
+        <v>-6.06788368462169</v>
       </c>
       <c r="D22" t="n">
-        <v>13.00149594044</v>
+        <v>-6.76093852657763</v>
       </c>
       <c r="E22" t="n">
-        <v>14.590058042422</v>
+        <v>-6.96906367692206</v>
       </c>
       <c r="F22" t="n">
-        <v>15.1483003490765</v>
+        <v>-7.45718383020801</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.82913536273273</v>
+        <v>-7.6475542467284</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.49947889644002</v>
+        <v>-8.84448801628196</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.97440440509297</v>
+        <v>-8.92746647728335</v>
       </c>
       <c r="J22" t="n">
-        <v>-9.39320643791223</v>
+        <v>-9.97450321790166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.3026095152277</v>
+        <v>11.1798052969982</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.35274050186751</v>
+        <v>12.2687325045036</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.33509608875911</v>
+        <v>11.6589088521929</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.67307390046522</v>
+        <v>12.7481761314569</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.00594236892318</v>
+        <v>14.4354330563182</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.66097790755939</v>
+        <v>15.2840398106782</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.7179149348265</v>
+        <v>16.124033153531</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.91405268061419</v>
+        <v>16.4491544480711</v>
       </c>
       <c r="I23" t="n">
-        <v>-9.28513650943956</v>
+        <v>17.7686809384381</v>
       </c>
       <c r="J23" t="n">
-        <v>-9.58958128591574</v>
+        <v>19.8387637958979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.79139456835444</v>
+        <v>-4.50236228494049</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.49359301591055</v>
+        <v>-5.1781252608415</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.86685124075325</v>
+        <v>-5.88578250107297</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.46646524811302</v>
+        <v>-6.53286171552103</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.22611942552779</v>
+        <v>-7.45934588194385</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.35719828887148</v>
+        <v>-7.35408960355805</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.36812450058266</v>
+        <v>-8.24050390905229</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.6646144843428</v>
+        <v>-8.56955688122829</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.26384186826665</v>
+        <v>-9.27118334913089</v>
       </c>
       <c r="J24" t="n">
-        <v>-9.70521158456238</v>
+        <v>-9.30203057739008</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.1983241984665</v>
+        <v>9.50649461774225</v>
       </c>
       <c r="B25" t="n">
-        <v>11.6615269821347</v>
+        <v>10.6404484577666</v>
       </c>
       <c r="C25" t="n">
-        <v>12.6812300650983</v>
+        <v>11.874015596283</v>
       </c>
       <c r="D25" t="n">
-        <v>14.6850070392621</v>
+        <v>12.5646143103462</v>
       </c>
       <c r="E25" t="n">
-        <v>14.031839156547</v>
+        <v>13.0429593923318</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.51028042336313</v>
+        <v>13.7694828014694</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.67642507669334</v>
+        <v>15.3930454666692</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.51174557834414</v>
+        <v>15.7834399380627</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.26818144189241</v>
+        <v>18.2419444185034</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.60173756762322</v>
+        <v>17.9193181168022</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.959160581757</v>
+        <v>9.8116209969949</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.17547018106067</v>
+        <v>11.4287970616805</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.62479718020307</v>
+        <v>11.9683416452347</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.95519870237243</v>
+        <v>14.5966692484765</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.92384099617879</v>
+        <v>-7.31798268837998</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.48366613707653</v>
+        <v>-7.84808872806141</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.91233149633867</v>
+        <v>-8.15870795936795</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.13963429469066</v>
+        <v>-8.18188760953345</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.94491965120192</v>
+        <v>-8.94754142289094</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.28302499124635</v>
+        <v>-9.73703752552144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.1863860747238</v>
+        <v>11.1826655283089</v>
       </c>
       <c r="B27" t="n">
-        <v>10.936260452699</v>
+        <v>12.2814922115705</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.72151348006687</v>
+        <v>10.1594329635333</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.59992779707649</v>
+        <v>-6.49261305236077</v>
       </c>
       <c r="E27" t="n">
-        <v>-6.66307124874423</v>
+        <v>-7.04624268508095</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.22371695015394</v>
+        <v>-7.57774535880473</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.03051819961005</v>
+        <v>-8.20126073373249</v>
       </c>
       <c r="H27" t="n">
-        <v>-8.52772119781466</v>
+        <v>-8.37138478289479</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.04285324937989</v>
+        <v>-8.9547029598327</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.71251990949087</v>
+        <v>-9.36314738119074</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.6108123040056</v>
+        <v>8.49148758366695</v>
       </c>
       <c r="B28" t="n">
-        <v>10.5433071143524</v>
+        <v>11.6581847784909</v>
       </c>
       <c r="C28" t="n">
-        <v>11.3018533347667</v>
+        <v>12.8662996513689</v>
       </c>
       <c r="D28" t="n">
-        <v>12.4046101149534</v>
+        <v>12.1703562318242</v>
       </c>
       <c r="E28" t="n">
-        <v>13.0277831655661</v>
+        <v>13.0613237245909</v>
       </c>
       <c r="F28" t="n">
-        <v>13.8112102585462</v>
+        <v>14.825010045127</v>
       </c>
       <c r="G28" t="n">
-        <v>16.1972479095728</v>
+        <v>14.9948112147845</v>
       </c>
       <c r="H28" t="n">
-        <v>16.8861500365279</v>
+        <v>15.2319926200073</v>
       </c>
       <c r="I28" t="n">
-        <v>18.5715639206176</v>
+        <v>16.7880202706794</v>
       </c>
       <c r="J28" t="n">
-        <v>20.6872996661691</v>
+        <v>18.8747965261424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-4.76618375728112</v>
+        <v>11.1416434570162</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.84692842378782</v>
+        <v>11.1613846820762</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.77220846571519</v>
+        <v>11.5829803940773</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.37454340231223</v>
+        <v>13.8643825273521</v>
       </c>
       <c r="E29" t="n">
-        <v>14.1359816437717</v>
+        <v>13.7700960541714</v>
       </c>
       <c r="F29" t="n">
-        <v>14.8913932150997</v>
+        <v>14.9520541409302</v>
       </c>
       <c r="G29" t="n">
-        <v>15.4642335738393</v>
+        <v>15.8251106996076</v>
       </c>
       <c r="H29" t="n">
-        <v>17.3472786823707</v>
+        <v>16.6759103546393</v>
       </c>
       <c r="I29" t="n">
-        <v>17.1198732443667</v>
+        <v>17.1797161175978</v>
       </c>
       <c r="J29" t="n">
-        <v>19.7880351886056</v>
+        <v>20.1678002957771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.83906022162192</v>
+        <v>9.41775683799596</v>
       </c>
       <c r="B30" t="n">
-        <v>10.7736888194644</v>
+        <v>11.0529971063696</v>
       </c>
       <c r="C30" t="n">
-        <v>14.0138890866218</v>
+        <v>12.4328605939959</v>
       </c>
       <c r="D30" t="n">
-        <v>13.2160595026536</v>
+        <v>13.913014187616</v>
       </c>
       <c r="E30" t="n">
-        <v>14.2438734441319</v>
+        <v>15.3413410941919</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.54092022982115</v>
+        <v>13.8882209910625</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.98469720021781</v>
+        <v>-8.12429084658566</v>
       </c>
       <c r="H30" t="n">
-        <v>16.7331173310332</v>
+        <v>-8.67440760168776</v>
       </c>
       <c r="I30" t="n">
-        <v>18.1967321429084</v>
+        <v>-8.74977934816308</v>
       </c>
       <c r="J30" t="n">
-        <v>19.2845335021138</v>
+        <v>-9.39894953456781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.03306544004475</v>
+        <v>-4.79219142375912</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.40626229532313</v>
+        <v>-5.76925686576646</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.28681960075893</v>
+        <v>-5.74608103103076</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.53158349502426</v>
+        <v>-6.63332849342312</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.90727997545682</v>
+        <v>-6.9382747516032</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.71261429150346</v>
+        <v>-7.52821009342669</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.48142214522735</v>
+        <v>-8.14760104165475</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.21784279416488</v>
+        <v>-8.88452948101172</v>
       </c>
       <c r="I31" t="n">
-        <v>-8.89247575975541</v>
+        <v>-9.13584970763793</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.39762162392647</v>
+        <v>-9.53478773035922</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.52626129371178</v>
+        <v>9.89171322990463</v>
       </c>
       <c r="B32" t="n">
-        <v>10.6797895903554</v>
+        <v>12.4246090170995</v>
       </c>
       <c r="C32" t="n">
-        <v>13.433303967637</v>
+        <v>12.6727368956948</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.44596703764875</v>
+        <v>13.4757675914024</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.65768619230534</v>
+        <v>13.7889480246149</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.5427149832588</v>
+        <v>14.3929394383081</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.92018367347577</v>
+        <v>14.4088961814123</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.84132090881907</v>
+        <v>16.5693315088067</v>
       </c>
       <c r="I32" t="n">
-        <v>-9.07619786946769</v>
+        <v>18.9836975978713</v>
       </c>
       <c r="J32" t="n">
-        <v>-9.83310039431452</v>
+        <v>19.3337528564118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.54950903162826</v>
+        <v>-4.82784972662258</v>
       </c>
       <c r="B33" t="n">
-        <v>11.6575512542293</v>
+        <v>-5.54740811689569</v>
       </c>
       <c r="C33" t="n">
-        <v>11.162112251172</v>
+        <v>-5.92739304501258</v>
       </c>
       <c r="D33" t="n">
-        <v>12.0202040961435</v>
+        <v>-6.26041568187155</v>
       </c>
       <c r="E33" t="n">
-        <v>14.4189825810756</v>
+        <v>-6.97500121110206</v>
       </c>
       <c r="F33" t="n">
-        <v>14.2594706713817</v>
+        <v>-7.40928754988675</v>
       </c>
       <c r="G33" t="n">
-        <v>15.4408286596898</v>
+        <v>-8.22485052175749</v>
       </c>
       <c r="H33" t="n">
-        <v>17.0840420106773</v>
+        <v>-8.70802212459846</v>
       </c>
       <c r="I33" t="n">
-        <v>17.6891668824148</v>
+        <v>-8.92158841879687</v>
       </c>
       <c r="J33" t="n">
-        <v>-9.82904162858579</v>
+        <v>-9.97465798147095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.4698060362623</v>
+        <v>10.9632795431671</v>
       </c>
       <c r="B34" t="n">
-        <v>10.5627902039437</v>
+        <v>10.5733005616395</v>
       </c>
       <c r="C34" t="n">
-        <v>11.5568496379124</v>
+        <v>11.6859085827678</v>
       </c>
       <c r="D34" t="n">
-        <v>13.8467491865641</v>
+        <v>13.3603837075208</v>
       </c>
       <c r="E34" t="n">
-        <v>13.3892537828388</v>
+        <v>15.9212101809434</v>
       </c>
       <c r="F34" t="n">
-        <v>14.3769474349728</v>
+        <v>14.0738997065705</v>
       </c>
       <c r="G34" t="n">
-        <v>15.8830892794894</v>
+        <v>15.2679887837779</v>
       </c>
       <c r="H34" t="n">
-        <v>17.13303049308</v>
+        <v>17.4739940483206</v>
       </c>
       <c r="I34" t="n">
-        <v>17.9971639542482</v>
+        <v>18.1109656934715</v>
       </c>
       <c r="J34" t="n">
-        <v>19.2443155885141</v>
+        <v>18.807877199856</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-5.14644924403693</v>
+        <v>9.5623954103868</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.08410380303788</v>
+        <v>11.6480665517804</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.069418982195</v>
+        <v>11.5962786223849</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.53915288589502</v>
+        <v>12.2579416076503</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.07573219774991</v>
+        <v>15.0125587539017</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.49681349622137</v>
+        <v>15.6039435550151</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.93864906157044</v>
+        <v>15.8855458496645</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.42197663192098</v>
+        <v>16.2461956757766</v>
       </c>
       <c r="I35" t="n">
-        <v>-9.01953720890779</v>
+        <v>18.4466090939487</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.69156688894198</v>
+        <v>18.0992456960718</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-5.02039935127414</v>
+        <v>9.99289634605582</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.08897679142373</v>
+        <v>10.9840021863488</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.12508849022287</v>
+        <v>12.0189011676682</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.66245775255397</v>
+        <v>13.1962969263293</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.72047924081319</v>
+        <v>14.151168202107</v>
       </c>
       <c r="F36" t="n">
-        <v>-7.5889583594816</v>
+        <v>15.1166598811219</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.97564092604761</v>
+        <v>16.487387868944</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.22347994361984</v>
+        <v>15.7753270252323</v>
       </c>
       <c r="I36" t="n">
-        <v>-8.98463475026624</v>
+        <v>17.3937907794154</v>
       </c>
       <c r="J36" t="n">
-        <v>-9.74229751634269</v>
+        <v>18.7616814397978</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.88486973841288</v>
+        <v>10.4943735577923</v>
       </c>
       <c r="B37" t="n">
-        <v>11.653454520497</v>
+        <v>9.68452904801934</v>
       </c>
       <c r="C37" t="n">
-        <v>13.0377046894822</v>
+        <v>11.0836691542678</v>
       </c>
       <c r="D37" t="n">
-        <v>12.4539544245209</v>
+        <v>12.7369716747496</v>
       </c>
       <c r="E37" t="n">
-        <v>14.6271443053117</v>
+        <v>14.6561155842345</v>
       </c>
       <c r="F37" t="n">
-        <v>14.4039637634057</v>
+        <v>15.9905414382256</v>
       </c>
       <c r="G37" t="n">
-        <v>15.199181046037</v>
+        <v>15.6433847003968</v>
       </c>
       <c r="H37" t="n">
-        <v>17.6988655940389</v>
+        <v>17.1520798348768</v>
       </c>
       <c r="I37" t="n">
-        <v>-8.93751667940029</v>
+        <v>18.8671836125038</v>
       </c>
       <c r="J37" t="n">
-        <v>-10.004748496582</v>
+        <v>18.4986063567476</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.1237529188127</v>
+        <v>11.036300552231</v>
       </c>
       <c r="B38" t="n">
-        <v>11.2768697130656</v>
+        <v>-5.50671249119035</v>
       </c>
       <c r="C38" t="n">
-        <v>11.4935398672608</v>
+        <v>-5.69345769176574</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1806685935332</v>
+        <v>-6.51073732479844</v>
       </c>
       <c r="E38" t="n">
-        <v>14.227027742115</v>
+        <v>-7.32708782612737</v>
       </c>
       <c r="F38" t="n">
-        <v>15.0737079703007</v>
+        <v>-7.50892280824469</v>
       </c>
       <c r="G38" t="n">
-        <v>16.7554177955899</v>
+        <v>-7.96719598807802</v>
       </c>
       <c r="H38" t="n">
-        <v>17.3874772783859</v>
+        <v>-8.4548880386156</v>
       </c>
       <c r="I38" t="n">
-        <v>17.5322518235539</v>
+        <v>-8.75715573504745</v>
       </c>
       <c r="J38" t="n">
-        <v>18.4681162321365</v>
+        <v>-9.6785705010936</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.205647468415</v>
+        <v>8.99403832576728</v>
       </c>
       <c r="B39" t="n">
-        <v>11.5598315377259</v>
+        <v>12.3003758771799</v>
       </c>
       <c r="C39" t="n">
-        <v>11.4166805986824</v>
+        <v>12.1735726038189</v>
       </c>
       <c r="D39" t="n">
-        <v>13.2751859879022</v>
+        <v>13.5657514156949</v>
       </c>
       <c r="E39" t="n">
-        <v>14.4113881319624</v>
+        <v>14.9971520550737</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.21066857889445</v>
+        <v>14.731187178559</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.24972291825473</v>
+        <v>16.4529156444649</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.47018153072877</v>
+        <v>17.9047645410896</v>
       </c>
       <c r="I39" t="n">
-        <v>-8.78439079965919</v>
+        <v>17.1931872892268</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.25355835400809</v>
+        <v>20.3407546122215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-5.07468400392964</v>
+        <v>-4.6092152690077</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.17593369645281</v>
+        <v>-5.28978172172595</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.966627829407</v>
+        <v>-5.8982908478474</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.83279427808657</v>
+        <v>-6.68033558937546</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.99689176917774</v>
+        <v>-7.26871884115163</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.25618656596415</v>
+        <v>-7.33039112503925</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.80399540968474</v>
+        <v>-7.82815182661673</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.84161020210159</v>
+        <v>-8.23907731422756</v>
       </c>
       <c r="I40" t="n">
-        <v>-9.20085893292461</v>
+        <v>-8.98677356527732</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.3078737801686</v>
+        <v>-10.0138853326098</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7.70369243210713</v>
+        <v>9.85311010759555</v>
       </c>
       <c r="B41" t="n">
-        <v>11.3252982211801</v>
+        <v>11.4989100925006</v>
       </c>
       <c r="C41" t="n">
-        <v>12.1831453774325</v>
+        <v>12.2844341759406</v>
       </c>
       <c r="D41" t="n">
-        <v>12.2704596743833</v>
+        <v>13.7659417983519</v>
       </c>
       <c r="E41" t="n">
-        <v>13.3345262721827</v>
+        <v>13.0561716988445</v>
       </c>
       <c r="F41" t="n">
-        <v>15.6730854386373</v>
+        <v>15.3747502398972</v>
       </c>
       <c r="G41" t="n">
-        <v>16.1839042187422</v>
+        <v>15.3270282877988</v>
       </c>
       <c r="H41" t="n">
-        <v>16.925381313978</v>
+        <v>15.9348534253835</v>
       </c>
       <c r="I41" t="n">
-        <v>18.4920883941068</v>
+        <v>18.0850080140556</v>
       </c>
       <c r="J41" t="n">
-        <v>19.2466033617138</v>
+        <v>-9.39046827844113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.55198709815041</v>
+        <v>10.168803394121</v>
       </c>
       <c r="B42" t="n">
-        <v>11.9478998423504</v>
+        <v>10.795002473275</v>
       </c>
       <c r="C42" t="n">
-        <v>11.3407440245077</v>
+        <v>11.1587777545373</v>
       </c>
       <c r="D42" t="n">
-        <v>10.986565900097</v>
+        <v>14.2260486059356</v>
       </c>
       <c r="E42" t="n">
-        <v>14.0001677029546</v>
+        <v>14.9238219174348</v>
       </c>
       <c r="F42" t="n">
-        <v>14.2809195789146</v>
+        <v>-7.68194270084629</v>
       </c>
       <c r="G42" t="n">
-        <v>16.5269392172925</v>
+        <v>-7.44795882914187</v>
       </c>
       <c r="H42" t="n">
-        <v>16.0036287602635</v>
+        <v>-8.9844026916364</v>
       </c>
       <c r="I42" t="n">
-        <v>17.660647072281</v>
+        <v>-8.76417410707403</v>
       </c>
       <c r="J42" t="n">
-        <v>18.6169482095019</v>
+        <v>-9.55685742904284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.29006944023637</v>
+        <v>10.5873288124428</v>
       </c>
       <c r="B43" t="n">
-        <v>10.6355453708156</v>
+        <v>11.2616374520375</v>
       </c>
       <c r="C43" t="n">
-        <v>12.6826573132565</v>
+        <v>11.8321121734351</v>
       </c>
       <c r="D43" t="n">
-        <v>13.9054646053899</v>
+        <v>12.6954848126794</v>
       </c>
       <c r="E43" t="n">
-        <v>14.0202551244037</v>
+        <v>-6.8632082894156</v>
       </c>
       <c r="F43" t="n">
-        <v>15.5042290474282</v>
+        <v>-7.48118535551858</v>
       </c>
       <c r="G43" t="n">
-        <v>16.5799251169788</v>
+        <v>-8.20230620788283</v>
       </c>
       <c r="H43" t="n">
-        <v>18.113305090055</v>
+        <v>-8.63785758140411</v>
       </c>
       <c r="I43" t="n">
-        <v>17.2415601056142</v>
+        <v>-8.95857815514546</v>
       </c>
       <c r="J43" t="n">
-        <v>18.3118269681067</v>
+        <v>-9.24567022969594</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.13621296710229</v>
+        <v>10.234178089478</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.58204451879744</v>
+        <v>12.0901232963727</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.85112600294863</v>
+        <v>-5.78039056176125</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.24272247905154</v>
+        <v>-6.55554350691321</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.08195344217184</v>
+        <v>-6.92525268594719</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.15615446105136</v>
+        <v>-7.49608046974622</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.87533043629735</v>
+        <v>-8.32299277060618</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.57681002458527</v>
+        <v>-8.42963089933818</v>
       </c>
       <c r="I44" t="n">
-        <v>-8.68066918511104</v>
+        <v>-9.16062661345752</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.60159051122647</v>
+        <v>-9.87884165434739</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.6439362354874</v>
+        <v>-4.76936804632276</v>
       </c>
       <c r="B45" t="n">
-        <v>10.6015481069763</v>
+        <v>-5.47018796435626</v>
       </c>
       <c r="C45" t="n">
-        <v>13.3316017594727</v>
+        <v>-6.1743427901008</v>
       </c>
       <c r="D45" t="n">
-        <v>-6.5241518129874</v>
+        <v>-6.89496176254688</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.81429944526246</v>
+        <v>-6.8938746450991</v>
       </c>
       <c r="F45" t="n">
-        <v>-7.26261712761709</v>
+        <v>-7.53648462654928</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.34637196805433</v>
+        <v>-8.1311612562565</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.21294680669535</v>
+        <v>-8.65659998018289</v>
       </c>
       <c r="I45" t="n">
-        <v>-9.11109994625752</v>
+        <v>-9.24044600206915</v>
       </c>
       <c r="J45" t="n">
-        <v>-9.7014004044363</v>
+        <v>-9.56974866382847</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.73897147678484</v>
+        <v>10.0763494919362</v>
       </c>
       <c r="B46" t="n">
-        <v>11.4089604251405</v>
+        <v>10.3138379307949</v>
       </c>
       <c r="C46" t="n">
-        <v>12.8487066353174</v>
+        <v>12.5486057760609</v>
       </c>
       <c r="D46" t="n">
-        <v>12.9701742983134</v>
+        <v>13.0578844050006</v>
       </c>
       <c r="E46" t="n">
-        <v>15.4066396456637</v>
+        <v>14.8701600159417</v>
       </c>
       <c r="F46" t="n">
-        <v>15.3372354678453</v>
+        <v>14.5225447845263</v>
       </c>
       <c r="G46" t="n">
-        <v>16.2020213687034</v>
+        <v>15.2833635239525</v>
       </c>
       <c r="H46" t="n">
-        <v>16.8411421813417</v>
+        <v>-8.21430119823306</v>
       </c>
       <c r="I46" t="n">
-        <v>17.2636613670084</v>
+        <v>-9.11022579322293</v>
       </c>
       <c r="J46" t="n">
-        <v>18.4116062184101</v>
+        <v>-9.59384615920866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.40097856496786</v>
+        <v>9.08854279171701</v>
       </c>
       <c r="B47" t="n">
-        <v>10.6835512812334</v>
+        <v>11.1988463348332</v>
       </c>
       <c r="C47" t="n">
-        <v>12.6278691126027</v>
+        <v>10.9421211661507</v>
       </c>
       <c r="D47" t="n">
-        <v>13.1205328999413</v>
+        <v>12.845115683444</v>
       </c>
       <c r="E47" t="n">
-        <v>14.0118503047189</v>
+        <v>14.3932189094165</v>
       </c>
       <c r="F47" t="n">
-        <v>14.5884556631805</v>
+        <v>14.7016624681325</v>
       </c>
       <c r="G47" t="n">
-        <v>15.1474566279019</v>
+        <v>15.9756607408716</v>
       </c>
       <c r="H47" t="n">
-        <v>16.6789709279323</v>
+        <v>17.101616514715</v>
       </c>
       <c r="I47" t="n">
-        <v>16.0851102719571</v>
+        <v>17.8634420613452</v>
       </c>
       <c r="J47" t="n">
-        <v>18.6232953260114</v>
+        <v>19.6233816759446</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-5.4178114816539</v>
+        <v>-5.10220748422469</v>
       </c>
       <c r="B48" t="n">
-        <v>-5.7423130980631</v>
+        <v>-5.48159106931875</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.29623235076472</v>
+        <v>-5.73958154278691</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.73529192525149</v>
+        <v>-6.54308672939843</v>
       </c>
       <c r="E48" t="n">
-        <v>-6.91055157710431</v>
+        <v>-6.72610692216464</v>
       </c>
       <c r="F48" t="n">
-        <v>-7.26485753250794</v>
+        <v>-7.11073778344214</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.17334071945251</v>
+        <v>-7.94485707049651</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.70411805551804</v>
+        <v>-8.30364836749969</v>
       </c>
       <c r="I48" t="n">
-        <v>-8.46403691178041</v>
+        <v>-9.11705514259301</v>
       </c>
       <c r="J48" t="n">
-        <v>-9.45334162863026</v>
+        <v>-9.50096818632746</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-5.08180511592035</v>
+        <v>10.4871036362397</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.56418447263412</v>
+        <v>11.3925352899992</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.21345455218319</v>
+        <v>11.6191234412472</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.92572556513059</v>
+        <v>12.8053802872121</v>
       </c>
       <c r="E49" t="n">
-        <v>-6.7860092186128</v>
+        <v>13.9190733082774</v>
       </c>
       <c r="F49" t="n">
-        <v>-7.27870984219353</v>
+        <v>14.5862114415779</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.78659878055791</v>
+        <v>16.6510451678084</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.31888492180935</v>
+        <v>16.6594264201479</v>
       </c>
       <c r="I49" t="n">
-        <v>-8.46150169626378</v>
+        <v>17.4564560425616</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.19781812807627</v>
+        <v>20.0679759813934</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.2156089611935</v>
+        <v>-4.86506394869713</v>
       </c>
       <c r="B50" t="n">
-        <v>13.017483908064</v>
+        <v>-5.66353733478742</v>
       </c>
       <c r="C50" t="n">
-        <v>11.7229978908207</v>
+        <v>-5.6096947618909</v>
       </c>
       <c r="D50" t="n">
-        <v>12.4419797203462</v>
+        <v>-6.47124582314147</v>
       </c>
       <c r="E50" t="n">
-        <v>15.538829719367</v>
+        <v>-6.64850071485283</v>
       </c>
       <c r="F50" t="n">
-        <v>-7.46329325280912</v>
+        <v>-7.37388180577139</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.04749575107789</v>
+        <v>-8.00280633658051</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.33932337806287</v>
+        <v>-8.56293026244962</v>
       </c>
       <c r="I50" t="n">
-        <v>-9.04321180435857</v>
+        <v>-9.25470872873583</v>
       </c>
       <c r="J50" t="n">
-        <v>-9.82860898012438</v>
+        <v>-9.77538445999448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.88113385425225</v>
+        <v>-5.04960947958065</v>
       </c>
       <c r="B51" t="n">
-        <v>11.622803735081</v>
+        <v>-5.95445703191893</v>
       </c>
       <c r="C51" t="n">
-        <v>12.3225036012921</v>
+        <v>-6.24377953748055</v>
       </c>
       <c r="D51" t="n">
-        <v>14.0795447064435</v>
+        <v>-6.205007941941</v>
       </c>
       <c r="E51" t="n">
-        <v>13.5293079654186</v>
+        <v>-7.19663859555073</v>
       </c>
       <c r="F51" t="n">
-        <v>14.1694535195571</v>
+        <v>-7.61643764628341</v>
       </c>
       <c r="G51" t="n">
-        <v>16.1621585579347</v>
+        <v>-7.67901301159153</v>
       </c>
       <c r="H51" t="n">
-        <v>17.4166834888894</v>
+        <v>-8.59775146755782</v>
       </c>
       <c r="I51" t="n">
-        <v>-9.15453474163489</v>
+        <v>-9.05875158047801</v>
       </c>
       <c r="J51" t="n">
-        <v>-9.73209698301626</v>
+        <v>-9.99926185541456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.3224228902069</v>
+        <v>-4.48629783978273</v>
       </c>
       <c r="B52" t="n">
-        <v>11.0175082409965</v>
+        <v>-5.7350892443206</v>
       </c>
       <c r="C52" t="n">
-        <v>12.4387594868984</v>
+        <v>-6.36771295458772</v>
       </c>
       <c r="D52" t="n">
-        <v>13.1952510949607</v>
+        <v>-6.38477701482303</v>
       </c>
       <c r="E52" t="n">
-        <v>14.0490952615957</v>
+        <v>-7.32331824774957</v>
       </c>
       <c r="F52" t="n">
-        <v>15.8439670436038</v>
+        <v>-7.80583016973656</v>
       </c>
       <c r="G52" t="n">
-        <v>15.5272845017711</v>
+        <v>15.5429886205313</v>
       </c>
       <c r="H52" t="n">
-        <v>16.71653442991</v>
+        <v>17.3258798463731</v>
       </c>
       <c r="I52" t="n">
-        <v>18.549977610205</v>
+        <v>18.4837923689459</v>
       </c>
       <c r="J52" t="n">
-        <v>-9.30964544196135</v>
+        <v>-9.43560507620109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.69983198154126</v>
+        <v>10.618866954861</v>
       </c>
       <c r="B53" t="n">
-        <v>10.551673693947</v>
+        <v>10.9122092698137</v>
       </c>
       <c r="C53" t="n">
-        <v>12.3172104924133</v>
+        <v>11.8305084610178</v>
       </c>
       <c r="D53" t="n">
-        <v>12.6744303657179</v>
+        <v>13.3502615893298</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.82861847452539</v>
+        <v>13.7786891170637</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.5260125382791</v>
+        <v>15.0527839679022</v>
       </c>
       <c r="G53" t="n">
-        <v>-8.0574197217349</v>
+        <v>16.6754561133257</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.33056289277153</v>
+        <v>18.0369621141831</v>
       </c>
       <c r="I53" t="n">
-        <v>-8.91491792603809</v>
+        <v>18.4486641583367</v>
       </c>
       <c r="J53" t="n">
-        <v>-9.48255333069847</v>
+        <v>18.8904158329455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.46636177923373</v>
+        <v>9.83905671846655</v>
       </c>
       <c r="B54" t="n">
-        <v>11.5032749795275</v>
+        <v>10.3322595760843</v>
       </c>
       <c r="C54" t="n">
-        <v>12.3676986375982</v>
+        <v>12.1030168888049</v>
       </c>
       <c r="D54" t="n">
-        <v>13.286864750051</v>
+        <v>14.1125440565507</v>
       </c>
       <c r="E54" t="n">
-        <v>13.7214623621231</v>
+        <v>-6.75223901701869</v>
       </c>
       <c r="F54" t="n">
-        <v>15.2994340928022</v>
+        <v>-7.42018700166189</v>
       </c>
       <c r="G54" t="n">
-        <v>17.3101207173162</v>
+        <v>-8.27945621863489</v>
       </c>
       <c r="H54" t="n">
-        <v>16.3350426239309</v>
+        <v>-8.06431168771177</v>
       </c>
       <c r="I54" t="n">
-        <v>17.5581885664087</v>
+        <v>-8.7166726966245</v>
       </c>
       <c r="J54" t="n">
-        <v>19.4774629779344</v>
+        <v>-9.46698902166215</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.70108026059369</v>
+        <v>9.151263572691</v>
       </c>
       <c r="B55" t="n">
-        <v>11.3260823776134</v>
+        <v>11.7296571436068</v>
       </c>
       <c r="C55" t="n">
-        <v>13.2509700023634</v>
+        <v>11.9077252090594</v>
       </c>
       <c r="D55" t="n">
-        <v>12.8526289267586</v>
+        <v>13.0643347429751</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.75504911002013</v>
+        <v>13.5007781310398</v>
       </c>
       <c r="F55" t="n">
-        <v>-7.14129143569114</v>
+        <v>16.4103699582222</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.22456269013928</v>
+        <v>16.1497430196076</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.65239587808592</v>
+        <v>16.4446846924069</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.01898859367746</v>
+        <v>17.5753835361783</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.65997724278705</v>
+        <v>19.1094626057922</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.64552929446022</v>
+        <v>10.3121724704245</v>
       </c>
       <c r="B56" t="n">
-        <v>10.1365129242171</v>
+        <v>10.9138592462284</v>
       </c>
       <c r="C56" t="n">
-        <v>12.086836751462</v>
+        <v>11.1853465588776</v>
       </c>
       <c r="D56" t="n">
-        <v>14.1407003328048</v>
+        <v>13.0192077543118</v>
       </c>
       <c r="E56" t="n">
-        <v>15.4510434457015</v>
+        <v>13.5504399261041</v>
       </c>
       <c r="F56" t="n">
-        <v>13.9889014955157</v>
+        <v>15.7676951886627</v>
       </c>
       <c r="G56" t="n">
-        <v>15.1853064893728</v>
+        <v>15.54296863188</v>
       </c>
       <c r="H56" t="n">
-        <v>16.9065652373347</v>
+        <v>16.467738918075</v>
       </c>
       <c r="I56" t="n">
-        <v>17.3698111853946</v>
+        <v>19.5247176017371</v>
       </c>
       <c r="J56" t="n">
-        <v>19.5680779904307</v>
+        <v>18.0736351461053</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.84685810379537</v>
+        <v>-5.22772603545182</v>
       </c>
       <c r="B57" t="n">
-        <v>12.0017020529917</v>
+        <v>-6.04430597217073</v>
       </c>
       <c r="C57" t="n">
-        <v>12.2775236250733</v>
+        <v>-5.72392335272597</v>
       </c>
       <c r="D57" t="n">
-        <v>12.6742585352668</v>
+        <v>-6.44943637433276</v>
       </c>
       <c r="E57" t="n">
-        <v>12.9729148278875</v>
+        <v>-7.1877386662299</v>
       </c>
       <c r="F57" t="n">
-        <v>14.5507750997117</v>
+        <v>-7.2472829384712</v>
       </c>
       <c r="G57" t="n">
-        <v>14.5933676110163</v>
+        <v>-8.02562222224984</v>
       </c>
       <c r="H57" t="n">
-        <v>19.2866038388272</v>
+        <v>-8.77566372737917</v>
       </c>
       <c r="I57" t="n">
-        <v>18.0562853766415</v>
+        <v>-8.76815814359102</v>
       </c>
       <c r="J57" t="n">
-        <v>19.9374106626607</v>
+        <v>-9.72653515322699</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-5.66311187067629</v>
+        <v>9.50064145836285</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.31203810342328</v>
+        <v>11.1440000429024</v>
       </c>
       <c r="C58" t="n">
-        <v>-6.14156622089494</v>
+        <v>11.1498093191136</v>
       </c>
       <c r="D58" t="n">
-        <v>-6.38751176342589</v>
+        <v>11.5718918280565</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.9294703065415</v>
+        <v>-7.37713110166696</v>
       </c>
       <c r="F58" t="n">
-        <v>-7.69110400796502</v>
+        <v>-7.27175288447784</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.7671053237895</v>
+        <v>-8.25508981468375</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.21322380147222</v>
+        <v>-8.82062717218534</v>
       </c>
       <c r="I58" t="n">
-        <v>-9.080732544563</v>
+        <v>-8.97982095588266</v>
       </c>
       <c r="J58" t="n">
-        <v>-9.67997995626216</v>
+        <v>-9.45148953320228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.80331848279439</v>
+        <v>10.219000029628</v>
       </c>
       <c r="B59" t="n">
-        <v>11.2648128931956</v>
+        <v>10.3898261228979</v>
       </c>
       <c r="C59" t="n">
-        <v>12.1858709073078</v>
+        <v>11.6199591872916</v>
       </c>
       <c r="D59" t="n">
-        <v>13.6775373907088</v>
+        <v>11.4929148982952</v>
       </c>
       <c r="E59" t="n">
-        <v>14.7713867682599</v>
+        <v>14.299235072543</v>
       </c>
       <c r="F59" t="n">
-        <v>15.2023421267279</v>
+        <v>16.2610274668561</v>
       </c>
       <c r="G59" t="n">
-        <v>16.0079174937363</v>
+        <v>17.6868453371054</v>
       </c>
       <c r="H59" t="n">
-        <v>16.7796689122449</v>
+        <v>17.2306346182536</v>
       </c>
       <c r="I59" t="n">
-        <v>18.2025147003449</v>
+        <v>17.2710356699774</v>
       </c>
       <c r="J59" t="n">
-        <v>18.4460510229228</v>
+        <v>18.6188591188238</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-5.01298152685202</v>
+        <v>-5.20870882754373</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.63955550211748</v>
+        <v>-5.67414126897461</v>
       </c>
       <c r="C60" t="n">
-        <v>-6.00937295969323</v>
+        <v>-6.01794382913286</v>
       </c>
       <c r="D60" t="n">
-        <v>-5.97165606598515</v>
+        <v>-6.32883212658697</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.01995888065959</v>
+        <v>-7.16635786721373</v>
       </c>
       <c r="F60" t="n">
-        <v>-7.50684138858783</v>
+        <v>-7.99156934625491</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.59368347351126</v>
+        <v>-8.06704891913238</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.726553211222</v>
+        <v>-8.20040643011027</v>
       </c>
       <c r="I60" t="n">
-        <v>-8.34702691244584</v>
+        <v>-8.62193666663527</v>
       </c>
       <c r="J60" t="n">
-        <v>-9.65236901984919</v>
+        <v>-9.65886121158507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.0049499874217</v>
+        <v>11.6934798196809</v>
       </c>
       <c r="B61" t="n">
-        <v>12.3298076087415</v>
+        <v>10.3100587356582</v>
       </c>
       <c r="C61" t="n">
-        <v>12.893216308138</v>
+        <v>11.1992813976728</v>
       </c>
       <c r="D61" t="n">
-        <v>12.6144302742996</v>
+        <v>13.1529131693308</v>
       </c>
       <c r="E61" t="n">
-        <v>13.8737217241485</v>
+        <v>13.1492321928035</v>
       </c>
       <c r="F61" t="n">
-        <v>14.7526923074493</v>
+        <v>15.0195080928066</v>
       </c>
       <c r="G61" t="n">
-        <v>15.2949631727467</v>
+        <v>15.3105630039172</v>
       </c>
       <c r="H61" t="n">
-        <v>16.8788004133944</v>
+        <v>17.3620811246575</v>
       </c>
       <c r="I61" t="n">
-        <v>19.6516013754709</v>
+        <v>18.9861680433407</v>
       </c>
       <c r="J61" t="n">
-        <v>18.7079566374088</v>
+        <v>18.7185689453892</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-4.8741848559964</v>
+        <v>8.78465489804218</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.40398066501937</v>
+        <v>11.0168891201616</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.1043168375625</v>
+        <v>11.7651498425065</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.83749194732976</v>
+        <v>15.2303413337081</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.29762947943105</v>
+        <v>13.5547941290826</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.51764260459206</v>
+        <v>15.8831989182309</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.20091062966027</v>
+        <v>14.1795530405134</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.52219405729062</v>
+        <v>15.8960724199093</v>
       </c>
       <c r="I62" t="n">
-        <v>-8.64532613801472</v>
+        <v>17.8411495816361</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.38344349504832</v>
+        <v>19.7723279917154</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-4.86641510308969</v>
+        <v>-4.85917158597983</v>
       </c>
       <c r="B63" t="n">
-        <v>-5.62277346548289</v>
+        <v>-6.08200142222298</v>
       </c>
       <c r="C63" t="n">
-        <v>-5.91756201821419</v>
+        <v>-5.90822807016506</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.14866306003551</v>
+        <v>-6.40461072365725</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.12938923464752</v>
+        <v>-6.86880224454702</v>
       </c>
       <c r="F63" t="n">
-        <v>-7.45674277580734</v>
+        <v>-7.45534010519438</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.30736916666306</v>
+        <v>-7.79396398375958</v>
       </c>
       <c r="H63" t="n">
-        <v>-8.44885944725859</v>
+        <v>-8.50397387156245</v>
       </c>
       <c r="I63" t="n">
-        <v>-8.91926195529799</v>
+        <v>-9.11588634602035</v>
       </c>
       <c r="J63" t="n">
-        <v>-9.74157007024399</v>
+        <v>-9.44677396161158</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.54111621748712</v>
+        <v>-5.23081532392513</v>
       </c>
       <c r="B64" t="n">
-        <v>10.5250110550176</v>
+        <v>-5.51167965039331</v>
       </c>
       <c r="C64" t="n">
-        <v>11.1434225358561</v>
+        <v>-6.08698765006992</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.46909966748575</v>
+        <v>-6.35101247983813</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.61803294872862</v>
+        <v>-7.13706521795118</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.03628853297228</v>
+        <v>-7.14138541392819</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.92633282133976</v>
+        <v>-7.95710935206298</v>
       </c>
       <c r="H64" t="n">
-        <v>-8.42006418677594</v>
+        <v>-7.67409449857897</v>
       </c>
       <c r="I64" t="n">
-        <v>-8.85800454537874</v>
+        <v>-8.62654523294515</v>
       </c>
       <c r="J64" t="n">
-        <v>18.6770264652936</v>
+        <v>-9.52339569660273</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.89563418505869</v>
+        <v>-4.77421544622871</v>
       </c>
       <c r="B65" t="n">
-        <v>11.1373840136352</v>
+        <v>-5.67060752269743</v>
       </c>
       <c r="C65" t="n">
-        <v>12.9861893038271</v>
+        <v>-6.10513234442083</v>
       </c>
       <c r="D65" t="n">
-        <v>12.24186314335</v>
+        <v>-6.72497712040726</v>
       </c>
       <c r="E65" t="n">
-        <v>13.7073648759376</v>
+        <v>-6.89701476047759</v>
       </c>
       <c r="F65" t="n">
-        <v>14.1627992817286</v>
+        <v>-7.64576408803357</v>
       </c>
       <c r="G65" t="n">
-        <v>15.3987333958511</v>
+        <v>-7.97259646691899</v>
       </c>
       <c r="H65" t="n">
-        <v>15.7129962243293</v>
+        <v>-8.69281309567068</v>
       </c>
       <c r="I65" t="n">
-        <v>20.0712539952993</v>
+        <v>-8.93729918636989</v>
       </c>
       <c r="J65" t="n">
-        <v>19.5837145410756</v>
+        <v>-9.27036750941422</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.4855424399992</v>
+        <v>10.7882764049103</v>
       </c>
       <c r="B66" t="n">
-        <v>11.7501977989491</v>
+        <v>10.8755050675189</v>
       </c>
       <c r="C66" t="n">
-        <v>12.1924193398114</v>
+        <v>12.7049592545404</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3394897264601</v>
+        <v>12.5626444971342</v>
       </c>
       <c r="E66" t="n">
-        <v>14.1612425695627</v>
+        <v>14.219700314633</v>
       </c>
       <c r="F66" t="n">
-        <v>15.0541143200855</v>
+        <v>15.2847453328365</v>
       </c>
       <c r="G66" t="n">
-        <v>17.7326557897783</v>
+        <v>16.8597255330068</v>
       </c>
       <c r="H66" t="n">
-        <v>16.8738308388155</v>
+        <v>19.0742922322208</v>
       </c>
       <c r="I66" t="n">
-        <v>19.6979422616057</v>
+        <v>17.8469600011684</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.50046210715518</v>
+        <v>17.9642203640174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.74250639247965</v>
+        <v>-4.84358877960946</v>
       </c>
       <c r="B67" t="n">
-        <v>11.1577816982207</v>
+        <v>-5.63153677019339</v>
       </c>
       <c r="C67" t="n">
-        <v>12.7374953237882</v>
+        <v>-6.09801035478784</v>
       </c>
       <c r="D67" t="n">
-        <v>11.2804919881619</v>
+        <v>-6.99559272197527</v>
       </c>
       <c r="E67" t="n">
-        <v>15.2000289605762</v>
+        <v>-7.10591228615032</v>
       </c>
       <c r="F67" t="n">
-        <v>15.2115285565444</v>
+        <v>-7.49162327018089</v>
       </c>
       <c r="G67" t="n">
-        <v>15.1613482917558</v>
+        <v>-7.411958030041</v>
       </c>
       <c r="H67" t="n">
-        <v>18.7458736626842</v>
+        <v>-8.38370599636737</v>
       </c>
       <c r="I67" t="n">
-        <v>18.4757710410639</v>
+        <v>-8.82719444127235</v>
       </c>
       <c r="J67" t="n">
-        <v>17.8925223494332</v>
+        <v>-9.81980695966463</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.9118016460556</v>
+        <v>9.85633453290538</v>
       </c>
       <c r="B68" t="n">
-        <v>11.7411945977834</v>
+        <v>10.5162748457629</v>
       </c>
       <c r="C68" t="n">
-        <v>12.7519932083441</v>
+        <v>12.4638441463632</v>
       </c>
       <c r="D68" t="n">
-        <v>13.5522608462262</v>
+        <v>12.8393490700091</v>
       </c>
       <c r="E68" t="n">
-        <v>14.2487349964844</v>
+        <v>13.7694983500445</v>
       </c>
       <c r="F68" t="n">
-        <v>13.8350973591742</v>
+        <v>-7.33009268516807</v>
       </c>
       <c r="G68" t="n">
-        <v>16.1227653921659</v>
+        <v>-8.15135435902669</v>
       </c>
       <c r="H68" t="n">
-        <v>16.9489893036018</v>
+        <v>-8.64942696914883</v>
       </c>
       <c r="I68" t="n">
-        <v>17.663742675538</v>
+        <v>-8.96210884482308</v>
       </c>
       <c r="J68" t="n">
-        <v>19.3449640873459</v>
+        <v>-9.35441830152342</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.43471578536819</v>
+        <v>10.0441463492429</v>
       </c>
       <c r="B69" t="n">
-        <v>10.5109578086349</v>
+        <v>10.3788065136141</v>
       </c>
       <c r="C69" t="n">
-        <v>13.0724758069991</v>
+        <v>11.4561506742578</v>
       </c>
       <c r="D69" t="n">
-        <v>12.0435355651905</v>
+        <v>-6.64372248544807</v>
       </c>
       <c r="E69" t="n">
-        <v>14.5598853035015</v>
+        <v>-6.9970899341381</v>
       </c>
       <c r="F69" t="n">
-        <v>15.1378074590178</v>
+        <v>-7.20902291372787</v>
       </c>
       <c r="G69" t="n">
-        <v>16.3229650627812</v>
+        <v>-7.83499589342337</v>
       </c>
       <c r="H69" t="n">
-        <v>16.6098944865449</v>
+        <v>-8.36720131629924</v>
       </c>
       <c r="I69" t="n">
-        <v>18.3557038498715</v>
+        <v>-8.95695112580276</v>
       </c>
       <c r="J69" t="n">
-        <v>17.5265868222852</v>
+        <v>-8.88934206127783</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.53204373389439</v>
+        <v>9.7325613623873</v>
       </c>
       <c r="B70" t="n">
-        <v>10.0470755451277</v>
+        <v>10.7224790913158</v>
       </c>
       <c r="C70" t="n">
-        <v>11.6403029864199</v>
+        <v>12.7615347926487</v>
       </c>
       <c r="D70" t="n">
-        <v>13.5063038742441</v>
+        <v>13.7483957455895</v>
       </c>
       <c r="E70" t="n">
-        <v>13.5762737661313</v>
+        <v>13.4729793912145</v>
       </c>
       <c r="F70" t="n">
-        <v>13.5546524286445</v>
+        <v>15.5572448693275</v>
       </c>
       <c r="G70" t="n">
-        <v>15.9548621389821</v>
+        <v>15.8469683811821</v>
       </c>
       <c r="H70" t="n">
-        <v>17.3941291021727</v>
+        <v>16.3597713657742</v>
       </c>
       <c r="I70" t="n">
-        <v>18.3864081737456</v>
+        <v>19.134355777543</v>
       </c>
       <c r="J70" t="n">
-        <v>19.3188210160368</v>
+        <v>18.5373759921576</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.0500533187181</v>
+        <v>-4.80300373460792</v>
       </c>
       <c r="B71" t="n">
-        <v>12.1957646038268</v>
+        <v>-5.4748866840592</v>
       </c>
       <c r="C71" t="n">
-        <v>11.5398230753167</v>
+        <v>-5.50632599682261</v>
       </c>
       <c r="D71" t="n">
-        <v>11.7138464581834</v>
+        <v>-6.86580957742825</v>
       </c>
       <c r="E71" t="n">
-        <v>14.6515867487214</v>
+        <v>-7.2054529859686</v>
       </c>
       <c r="F71" t="n">
-        <v>14.6523067755262</v>
+        <v>-6.87765979166806</v>
       </c>
       <c r="G71" t="n">
-        <v>14.4188701427103</v>
+        <v>-7.82037038979737</v>
       </c>
       <c r="H71" t="n">
-        <v>17.3452894208095</v>
+        <v>-8.30960181081711</v>
       </c>
       <c r="I71" t="n">
-        <v>17.3894151750495</v>
+        <v>-8.98448890145693</v>
       </c>
       <c r="J71" t="n">
-        <v>19.1057752196215</v>
+        <v>-9.56940810157966</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9.93586120189761</v>
+        <v>10.2882313472088</v>
       </c>
       <c r="B72" t="n">
-        <v>10.9481853661552</v>
+        <v>10.3113187557893</v>
       </c>
       <c r="C72" t="n">
-        <v>11.4324560073726</v>
+        <v>12.1402894946905</v>
       </c>
       <c r="D72" t="n">
-        <v>12.7480027492238</v>
+        <v>12.6016968568504</v>
       </c>
       <c r="E72" t="n">
-        <v>13.7905232490957</v>
+        <v>14.0828967790859</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.94447764663689</v>
+        <v>16.1469883291468</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.06450896832141</v>
+        <v>15.8974882013636</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.75767879537472</v>
+        <v>18.4499008098059</v>
       </c>
       <c r="I72" t="n">
-        <v>-8.99611967293695</v>
+        <v>18.8004024818172</v>
       </c>
       <c r="J72" t="n">
-        <v>-9.70600911064279</v>
+        <v>19.0160813556805</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-4.97445258584349</v>
+        <v>9.66318159559924</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.76569713024523</v>
+        <v>11.8840050760946</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.20299460048592</v>
+        <v>11.6629005968778</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.82393225723374</v>
+        <v>12.9845149800978</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.85926327639838</v>
+        <v>12.9527594242812</v>
       </c>
       <c r="F73" t="n">
-        <v>-7.64979215446024</v>
+        <v>14.9199521067439</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.91894914454757</v>
+        <v>16.5157685372983</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.35654796276958</v>
+        <v>15.8211507087065</v>
       </c>
       <c r="I73" t="n">
-        <v>-8.96365391054955</v>
+        <v>18.0557031807182</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.12431763092394</v>
+        <v>20.1304879724556</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10.1491599953543</v>
+        <v>10.5883232629281</v>
       </c>
       <c r="B74" t="n">
-        <v>11.2413810577585</v>
+        <v>11.0763455917518</v>
       </c>
       <c r="C74" t="n">
-        <v>12.5623338620187</v>
+        <v>11.8595090431021</v>
       </c>
       <c r="D74" t="n">
-        <v>13.2552736307959</v>
+        <v>14.9959336399664</v>
       </c>
       <c r="E74" t="n">
-        <v>12.6701564751715</v>
+        <v>13.7338929154434</v>
       </c>
       <c r="F74" t="n">
-        <v>15.0266782872449</v>
+        <v>15.7291771860364</v>
       </c>
       <c r="G74" t="n">
-        <v>16.4033274749105</v>
+        <v>16.1784281495448</v>
       </c>
       <c r="H74" t="n">
-        <v>17.3110832447996</v>
+        <v>16.3164402713629</v>
       </c>
       <c r="I74" t="n">
-        <v>17.7996961862142</v>
+        <v>17.037994823125</v>
       </c>
       <c r="J74" t="n">
-        <v>18.0271452269213</v>
+        <v>19.4397456741166</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4.78432667296153</v>
+        <v>-5.42448089462231</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.68882937915385</v>
+        <v>-5.44896553970009</v>
       </c>
       <c r="C75" t="n">
-        <v>11.0933194207261</v>
+        <v>-5.68491555452145</v>
       </c>
       <c r="D75" t="n">
-        <v>12.5597008653017</v>
+        <v>-5.83810571538812</v>
       </c>
       <c r="E75" t="n">
-        <v>14.49408811306</v>
+        <v>-6.94457060490083</v>
       </c>
       <c r="F75" t="n">
-        <v>14.3947806951448</v>
+        <v>-7.38089651520794</v>
       </c>
       <c r="G75" t="n">
-        <v>16.1478216764526</v>
+        <v>-8.00715014205832</v>
       </c>
       <c r="H75" t="n">
-        <v>17.543833524084</v>
+        <v>-8.48201160219492</v>
       </c>
       <c r="I75" t="n">
-        <v>15.9846977448624</v>
+        <v>-9.69273555002612</v>
       </c>
       <c r="J75" t="n">
-        <v>18.5097375670906</v>
+        <v>-9.50783340098506</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.67290972441486</v>
+        <v>10.4745969413598</v>
       </c>
       <c r="B76" t="n">
-        <v>10.7532527573354</v>
+        <v>10.8477864370925</v>
       </c>
       <c r="C76" t="n">
-        <v>11.7247717858173</v>
+        <v>11.7418227060294</v>
       </c>
       <c r="D76" t="n">
-        <v>14.1744567427992</v>
+        <v>15.585014953558</v>
       </c>
       <c r="E76" t="n">
-        <v>13.8789960839602</v>
+        <v>14.4911532707084</v>
       </c>
       <c r="F76" t="n">
-        <v>14.6056875188965</v>
+        <v>16.3415554324467</v>
       </c>
       <c r="G76" t="n">
-        <v>16.0954877170515</v>
+        <v>16.5331569847986</v>
       </c>
       <c r="H76" t="n">
-        <v>16.4061187124993</v>
+        <v>17.391726846634</v>
       </c>
       <c r="I76" t="n">
-        <v>18.4280905769406</v>
+        <v>18.1111482538382</v>
       </c>
       <c r="J76" t="n">
-        <v>20.3178194559571</v>
+        <v>19.116099223865</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-4.82602971510799</v>
+        <v>-5.27118180229396</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.54550504287619</v>
+        <v>-5.26126000176663</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.1056272534359</v>
+        <v>-5.8026555804792</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.45045195009122</v>
+        <v>-6.15846911813554</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.90283761862029</v>
+        <v>-7.35389156066018</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.54520919261037</v>
+        <v>-7.33816067988074</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.08505575686385</v>
+        <v>-7.93053365451294</v>
       </c>
       <c r="H77" t="n">
-        <v>-8.40203673215963</v>
+        <v>-8.76602515987734</v>
       </c>
       <c r="I77" t="n">
-        <v>-9.01348104219357</v>
+        <v>-8.81343020630753</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.76011090934674</v>
+        <v>-9.67111526131606</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.14004784487251</v>
+        <v>9.41777495251885</v>
       </c>
       <c r="B78" t="n">
-        <v>9.7512907622387</v>
+        <v>10.8718696998726</v>
       </c>
       <c r="C78" t="n">
-        <v>10.1512237254592</v>
+        <v>13.0845071532879</v>
       </c>
       <c r="D78" t="n">
-        <v>14.154507963468</v>
+        <v>12.5319379426184</v>
       </c>
       <c r="E78" t="n">
-        <v>13.9056236399357</v>
+        <v>12.7741097570106</v>
       </c>
       <c r="F78" t="n">
-        <v>15.9382646442312</v>
+        <v>15.019413663825</v>
       </c>
       <c r="G78" t="n">
-        <v>15.7089978638937</v>
+        <v>17.2199769860454</v>
       </c>
       <c r="H78" t="n">
-        <v>16.0467563471087</v>
+        <v>16.0714184961213</v>
       </c>
       <c r="I78" t="n">
-        <v>19.2474904161699</v>
+        <v>-9.05126197488482</v>
       </c>
       <c r="J78" t="n">
-        <v>20.0164587572882</v>
+        <v>-9.93642541866407</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10.8405395049573</v>
+        <v>9.54529228540925</v>
       </c>
       <c r="B79" t="n">
-        <v>12.7369601642314</v>
+        <v>11.4094340323679</v>
       </c>
       <c r="C79" t="n">
-        <v>12.1098837439063</v>
+        <v>10.9740259330061</v>
       </c>
       <c r="D79" t="n">
-        <v>12.1437908914568</v>
+        <v>13.2539902386735</v>
       </c>
       <c r="E79" t="n">
-        <v>13.7638351572107</v>
+        <v>13.3533220399715</v>
       </c>
       <c r="F79" t="n">
-        <v>15.3963061957648</v>
+        <v>14.4229527436547</v>
       </c>
       <c r="G79" t="n">
-        <v>16.1210538873789</v>
+        <v>15.5036257206818</v>
       </c>
       <c r="H79" t="n">
-        <v>17.3362899442103</v>
+        <v>18.4758036919347</v>
       </c>
       <c r="I79" t="n">
-        <v>19.2752351736479</v>
+        <v>18.3399772926965</v>
       </c>
       <c r="J79" t="n">
-        <v>18.896001408362</v>
+        <v>19.4615278927286</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-5.01004122747606</v>
+        <v>9.76996079640929</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.30557169610742</v>
+        <v>-5.18638350404677</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.83835378086805</v>
+        <v>-5.53334140618383</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.33029559956216</v>
+        <v>-6.10627367147948</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.18540862836951</v>
+        <v>-7.03049355426472</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.56289589385878</v>
+        <v>-7.25601519349255</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.28614355844967</v>
+        <v>-8.11869384626335</v>
       </c>
       <c r="H80" t="n">
-        <v>-8.9094945633171</v>
+        <v>-8.30580333779327</v>
       </c>
       <c r="I80" t="n">
-        <v>-8.88066301555182</v>
+        <v>-8.81969721047296</v>
       </c>
       <c r="J80" t="n">
-        <v>-9.2648473639617</v>
+        <v>-9.67173203672551</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-4.77879312976938</v>
+        <v>-5.07474462545191</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.57875125757742</v>
+        <v>-5.4705023972821</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.00572420821125</v>
+        <v>-6.06464248766811</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.97088932920548</v>
+        <v>-6.56149584648681</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.76655099557723</v>
+        <v>-6.72640649555666</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.32610291565222</v>
+        <v>-7.17951900881746</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.03333582617997</v>
+        <v>-8.21096353529677</v>
       </c>
       <c r="H81" t="n">
-        <v>-8.77814732849785</v>
+        <v>-8.01368420268273</v>
       </c>
       <c r="I81" t="n">
-        <v>-9.00422766621455</v>
+        <v>-9.27458505134248</v>
       </c>
       <c r="J81" t="n">
-        <v>-9.85836875603525</v>
+        <v>-9.00294691798137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.83665269103753</v>
+        <v>9.99727279137432</v>
       </c>
       <c r="B82" t="n">
-        <v>9.91164602416847</v>
+        <v>10.9665075005459</v>
       </c>
       <c r="C82" t="n">
-        <v>12.4017291253811</v>
+        <v>12.4021986453083</v>
       </c>
       <c r="D82" t="n">
-        <v>13.5488799963128</v>
+        <v>13.7184872348462</v>
       </c>
       <c r="E82" t="n">
-        <v>14.700169096666</v>
+        <v>14.4620748500675</v>
       </c>
       <c r="F82" t="n">
-        <v>15.275812956647</v>
+        <v>15.2835127045702</v>
       </c>
       <c r="G82" t="n">
-        <v>16.1798941429179</v>
+        <v>16.8551453404518</v>
       </c>
       <c r="H82" t="n">
-        <v>16.9823153838196</v>
+        <v>16.5544655943351</v>
       </c>
       <c r="I82" t="n">
-        <v>18.0083161350077</v>
+        <v>16.9706846248323</v>
       </c>
       <c r="J82" t="n">
-        <v>18.9300767613902</v>
+        <v>-8.92043861468312</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.59573519638037</v>
+        <v>10.7875166791079</v>
       </c>
       <c r="B83" t="n">
-        <v>11.7200749840115</v>
+        <v>10.9529689013269</v>
       </c>
       <c r="C83" t="n">
-        <v>13.0167993616121</v>
+        <v>11.7837282948787</v>
       </c>
       <c r="D83" t="n">
-        <v>-6.07318519087043</v>
+        <v>13.337288201366</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.08235502575934</v>
+        <v>15.1416429253799</v>
       </c>
       <c r="F83" t="n">
-        <v>13.1277472754041</v>
+        <v>14.8475400419371</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.52914721212842</v>
+        <v>16.1350655499229</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.21987287149999</v>
+        <v>15.8622993171482</v>
       </c>
       <c r="I83" t="n">
-        <v>-9.07622485535574</v>
+        <v>17.9023475925225</v>
       </c>
       <c r="J83" t="n">
-        <v>-9.26045449684703</v>
+        <v>-9.63041725566604</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-4.68424286224283</v>
+        <v>-4.47082750519167</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.37556016509176</v>
+        <v>-5.49609795012839</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.29498001903039</v>
+        <v>-5.94772625588465</v>
       </c>
       <c r="D84" t="n">
-        <v>-6.33387713275787</v>
+        <v>-6.32577279360231</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.27250014149867</v>
+        <v>-7.27551691686582</v>
       </c>
       <c r="F84" t="n">
-        <v>-7.21499878836817</v>
+        <v>-7.39099575996795</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.2377710524119</v>
+        <v>-8.0580172618397</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.99388344231689</v>
+        <v>-8.66796331330156</v>
       </c>
       <c r="I84" t="n">
-        <v>-9.23732617798833</v>
+        <v>-8.57993064772329</v>
       </c>
       <c r="J84" t="n">
-        <v>-9.52854605590003</v>
+        <v>-9.4959745020645</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-5.29795493358383</v>
+        <v>-5.27598615205854</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.30756425422156</v>
+        <v>-5.16481740855259</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.5450326856874</v>
+        <v>-5.78256843120876</v>
       </c>
       <c r="D85" t="n">
-        <v>-6.46037937430924</v>
+        <v>-6.54911877680694</v>
       </c>
       <c r="E85" t="n">
-        <v>-6.71859596160716</v>
+        <v>-6.91731155636126</v>
       </c>
       <c r="F85" t="n">
-        <v>-7.46008759450387</v>
+        <v>-7.27483134239254</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.17193032420275</v>
+        <v>-7.37572271220214</v>
       </c>
       <c r="H85" t="n">
-        <v>-8.03759664246139</v>
+        <v>-8.55699644607562</v>
       </c>
       <c r="I85" t="n">
-        <v>18.5347488896112</v>
+        <v>-9.19002840239213</v>
       </c>
       <c r="J85" t="n">
-        <v>18.0144850096284</v>
+        <v>-8.77953451747271</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.26848787120495</v>
+        <v>10.0225825203418</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.6609268617705</v>
+        <v>11.1395052826936</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.96993649571812</v>
+        <v>11.6445736978338</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.30434559070791</v>
+        <v>14.1817288660945</v>
       </c>
       <c r="E86" t="n">
-        <v>-6.66820786574264</v>
+        <v>13.166759408552</v>
       </c>
       <c r="F86" t="n">
-        <v>-7.31399511112813</v>
+        <v>14.0849694457848</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.67857036048927</v>
+        <v>14.195984132658</v>
       </c>
       <c r="H86" t="n">
-        <v>-8.51831026493439</v>
+        <v>18.3597915793844</v>
       </c>
       <c r="I86" t="n">
-        <v>-9.21088707329878</v>
+        <v>17.8516885470168</v>
       </c>
       <c r="J86" t="n">
-        <v>-9.89712956385312</v>
+        <v>17.8917494803082</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9.6579260828756</v>
+        <v>10.337086823498</v>
       </c>
       <c r="B87" t="n">
-        <v>10.72119135747</v>
+        <v>11.9875384317877</v>
       </c>
       <c r="C87" t="n">
-        <v>12.9891292954188</v>
+        <v>12.4743724890174</v>
       </c>
       <c r="D87" t="n">
-        <v>13.5102445479465</v>
+        <v>14.4946522785697</v>
       </c>
       <c r="E87" t="n">
-        <v>14.2951321214766</v>
+        <v>13.7776175326444</v>
       </c>
       <c r="F87" t="n">
-        <v>14.4369721064594</v>
+        <v>15.3905407252003</v>
       </c>
       <c r="G87" t="n">
-        <v>17.3306882218658</v>
+        <v>15.4652090736418</v>
       </c>
       <c r="H87" t="n">
-        <v>15.8523869271714</v>
+        <v>16.7401697261749</v>
       </c>
       <c r="I87" t="n">
-        <v>18.3921655944572</v>
+        <v>17.9852423186377</v>
       </c>
       <c r="J87" t="n">
-        <v>20.3409921715182</v>
+        <v>19.6984572732163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9.23117503401556</v>
+        <v>-4.94029863882445</v>
       </c>
       <c r="B88" t="n">
-        <v>10.427078579886</v>
+        <v>-5.53595032582469</v>
       </c>
       <c r="C88" t="n">
-        <v>13.1833059953298</v>
+        <v>-6.12942560960322</v>
       </c>
       <c r="D88" t="n">
-        <v>12.7227596900759</v>
+        <v>-6.56165395677592</v>
       </c>
       <c r="E88" t="n">
-        <v>13.9154763941061</v>
+        <v>-7.23428945097473</v>
       </c>
       <c r="F88" t="n">
-        <v>15.6834002316242</v>
+        <v>-7.88945988162855</v>
       </c>
       <c r="G88" t="n">
-        <v>14.6861892900563</v>
+        <v>-8.15282797237684</v>
       </c>
       <c r="H88" t="n">
-        <v>17.9851059202352</v>
+        <v>-8.76093334287589</v>
       </c>
       <c r="I88" t="n">
-        <v>17.4411600551934</v>
+        <v>-9.30121765574778</v>
       </c>
       <c r="J88" t="n">
-        <v>18.1960274738819</v>
+        <v>-9.4699395085489</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.7391553815431</v>
+        <v>9.52313435568288</v>
       </c>
       <c r="B89" t="n">
-        <v>10.3112288041046</v>
+        <v>11.6020493315763</v>
       </c>
       <c r="C89" t="n">
-        <v>11.7111438786161</v>
+        <v>11.5812986039217</v>
       </c>
       <c r="D89" t="n">
-        <v>13.9866507347561</v>
+        <v>12.882100911607</v>
       </c>
       <c r="E89" t="n">
-        <v>14.3378291999835</v>
+        <v>13.9476424558845</v>
       </c>
       <c r="F89" t="n">
-        <v>-7.66888429785939</v>
+        <v>15.6095051179697</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.63002472156855</v>
+        <v>16.0606114730463</v>
       </c>
       <c r="H89" t="n">
-        <v>-8.44459392261541</v>
+        <v>18.1251843936669</v>
       </c>
       <c r="I89" t="n">
-        <v>-9.05922319076135</v>
+        <v>19.0518942090372</v>
       </c>
       <c r="J89" t="n">
-        <v>-9.20368160930534</v>
+        <v>18.3974076544125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.97692094415301</v>
+        <v>10.0846574381194</v>
       </c>
       <c r="B90" t="n">
-        <v>10.2010559518183</v>
+        <v>9.75323303377226</v>
       </c>
       <c r="C90" t="n">
-        <v>11.2336549672498</v>
+        <v>12.1083619295207</v>
       </c>
       <c r="D90" t="n">
-        <v>13.8918528125528</v>
+        <v>13.0653227481865</v>
       </c>
       <c r="E90" t="n">
-        <v>13.7884755533734</v>
+        <v>13.9647396228156</v>
       </c>
       <c r="F90" t="n">
-        <v>14.8448547798679</v>
+        <v>15.0820369937099</v>
       </c>
       <c r="G90" t="n">
-        <v>17.2597984224179</v>
+        <v>15.0611214847719</v>
       </c>
       <c r="H90" t="n">
-        <v>16.8704321726573</v>
+        <v>16.1845024371291</v>
       </c>
       <c r="I90" t="n">
-        <v>16.9339613616844</v>
+        <v>19.6564602235216</v>
       </c>
       <c r="J90" t="n">
-        <v>19.7555321962358</v>
+        <v>19.3684935384447</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9.35379576581218</v>
+        <v>10.023318117475</v>
       </c>
       <c r="B91" t="n">
-        <v>12.1848487280893</v>
+        <v>10.4599917433744</v>
       </c>
       <c r="C91" t="n">
-        <v>12.3564697837845</v>
+        <v>12.3983908022257</v>
       </c>
       <c r="D91" t="n">
-        <v>13.356311640299</v>
+        <v>13.8959415961203</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.07025037578628</v>
+        <v>14.1138635273107</v>
       </c>
       <c r="F91" t="n">
-        <v>-7.83342109947945</v>
+        <v>13.8374520166856</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.86630330215129</v>
+        <v>-8.09754871907534</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.21213458611864</v>
+        <v>-8.23865264449115</v>
       </c>
       <c r="I91" t="n">
-        <v>-9.07750203031052</v>
+        <v>-9.5487103734594</v>
       </c>
       <c r="J91" t="n">
-        <v>-10.0124429157237</v>
+        <v>-9.49195111539239</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.43154726819377</v>
+        <v>9.83522745615718</v>
       </c>
       <c r="B92" t="n">
-        <v>11.5629699236592</v>
+        <v>12.1995006184206</v>
       </c>
       <c r="C92" t="n">
-        <v>11.4063135355169</v>
+        <v>10.9695343616505</v>
       </c>
       <c r="D92" t="n">
-        <v>12.4045427849707</v>
+        <v>12.7424027167377</v>
       </c>
       <c r="E92" t="n">
-        <v>13.0084532855905</v>
+        <v>14.7178912310925</v>
       </c>
       <c r="F92" t="n">
-        <v>14.6856688174271</v>
+        <v>-7.39711559858016</v>
       </c>
       <c r="G92" t="n">
-        <v>15.3924429960764</v>
+        <v>-8.19736068748029</v>
       </c>
       <c r="H92" t="n">
-        <v>17.2826731694624</v>
+        <v>-8.38764585674026</v>
       </c>
       <c r="I92" t="n">
-        <v>16.7666354112552</v>
+        <v>-8.91406469116913</v>
       </c>
       <c r="J92" t="n">
-        <v>19.8833704797563</v>
+        <v>-9.8400910714376</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-5.10693424732175</v>
+        <v>10.0509409512311</v>
       </c>
       <c r="B93" t="n">
-        <v>-5.74238944346625</v>
+        <v>11.0931022893999</v>
       </c>
       <c r="C93" t="n">
-        <v>-6.05702407621776</v>
+        <v>11.4562195971024</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.44106124201401</v>
+        <v>12.9395182732705</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.00946998518463</v>
+        <v>-7.18170339939419</v>
       </c>
       <c r="F93" t="n">
-        <v>-7.88307002219927</v>
+        <v>-7.3413712628671</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.07686127613645</v>
+        <v>-7.74630404458303</v>
       </c>
       <c r="H93" t="n">
-        <v>-8.64499173413927</v>
+        <v>-8.38980920108876</v>
       </c>
       <c r="I93" t="n">
-        <v>-8.8003258261186</v>
+        <v>-9.32141882121302</v>
       </c>
       <c r="J93" t="n">
-        <v>-9.4394175043688</v>
+        <v>-9.5963104305858</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.5939490192841</v>
+        <v>9.55566466463447</v>
       </c>
       <c r="B94" t="n">
-        <v>11.2535450258628</v>
+        <v>10.4473454763353</v>
       </c>
       <c r="C94" t="n">
-        <v>-6.50911547027958</v>
+        <v>11.7642458809226</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.59063683219174</v>
+        <v>12.9110094094668</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.16635947273452</v>
+        <v>15.0005262154888</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.54321897773636</v>
+        <v>15.5945894588265</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.19631413562617</v>
+        <v>16.3888452261213</v>
       </c>
       <c r="H94" t="n">
-        <v>-8.36884314338189</v>
+        <v>17.6965620229609</v>
       </c>
       <c r="I94" t="n">
-        <v>-8.86199650744458</v>
+        <v>18.0875162681354</v>
       </c>
       <c r="J94" t="n">
-        <v>-9.50985211768918</v>
+        <v>19.4741278875549</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.5294337473921</v>
+        <v>-5.28643107397666</v>
       </c>
       <c r="B95" t="n">
-        <v>12.1018713239873</v>
+        <v>-5.78753445460028</v>
       </c>
       <c r="C95" t="n">
-        <v>11.7634910320424</v>
+        <v>-5.97415293961118</v>
       </c>
       <c r="D95" t="n">
-        <v>14.1393512848647</v>
+        <v>-6.63011817142466</v>
       </c>
       <c r="E95" t="n">
-        <v>15.5186780090512</v>
+        <v>-7.20747700180237</v>
       </c>
       <c r="F95" t="n">
-        <v>15.0922767211259</v>
+        <v>-7.82022752613398</v>
       </c>
       <c r="G95" t="n">
-        <v>16.2727300668601</v>
+        <v>-7.80142004925747</v>
       </c>
       <c r="H95" t="n">
-        <v>17.5433767195066</v>
+        <v>-8.22030671341235</v>
       </c>
       <c r="I95" t="n">
-        <v>17.9479786613252</v>
+        <v>-8.67216181533269</v>
       </c>
       <c r="J95" t="n">
-        <v>18.7020037878397</v>
+        <v>-9.27395435252176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.81884012040726</v>
+        <v>8.59250175382529</v>
       </c>
       <c r="B96" t="n">
-        <v>10.1540541132902</v>
+        <v>10.6098520613741</v>
       </c>
       <c r="C96" t="n">
-        <v>-6.4404902163165</v>
+        <v>13.8801603099541</v>
       </c>
       <c r="D96" t="n">
-        <v>-6.49992890349935</v>
+        <v>11.9893977302163</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.24818930249719</v>
+        <v>14.6538394021901</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.66616552175245</v>
+        <v>15.7196936532293</v>
       </c>
       <c r="G96" t="n">
-        <v>16.0836085314495</v>
+        <v>15.1461998153543</v>
       </c>
       <c r="H96" t="n">
-        <v>17.5728094800549</v>
+        <v>17.7928606966653</v>
       </c>
       <c r="I96" t="n">
-        <v>17.8432622655062</v>
+        <v>18.3634823104144</v>
       </c>
       <c r="J96" t="n">
-        <v>20.2459923335277</v>
+        <v>20.5754671001826</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-4.82322310211919</v>
+        <v>10.2798762322372</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.75338162500894</v>
+        <v>10.3937746894617</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.92702289080006</v>
+        <v>-5.88050619358314</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.43847982014818</v>
+        <v>-6.91079017217298</v>
       </c>
       <c r="E97" t="n">
-        <v>-6.77518301426152</v>
+        <v>-6.7297723816256</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.50988816937696</v>
+        <v>-7.56003331611614</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.11161557074932</v>
+        <v>-8.00251623542608</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.28816102089041</v>
+        <v>-8.49246993527983</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.05985350016261</v>
+        <v>-9.15558699262794</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.35926937592884</v>
+        <v>-10.0047609383985</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.1919965924926</v>
+        <v>10.0311581030772</v>
       </c>
       <c r="B98" t="n">
-        <v>10.840535989355</v>
+        <v>11.2859883848174</v>
       </c>
       <c r="C98" t="n">
-        <v>11.6501941956124</v>
+        <v>12.5885090027607</v>
       </c>
       <c r="D98" t="n">
-        <v>14.3787761544078</v>
+        <v>12.8798557325154</v>
       </c>
       <c r="E98" t="n">
-        <v>12.3149120901448</v>
+        <v>13.8217018387638</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.48253093534588</v>
+        <v>15.8860432405968</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.86235187346767</v>
+        <v>15.8811978269181</v>
       </c>
       <c r="H98" t="n">
-        <v>-8.72039858740983</v>
+        <v>17.0578972478196</v>
       </c>
       <c r="I98" t="n">
-        <v>-9.11253543208383</v>
+        <v>17.9311057202305</v>
       </c>
       <c r="J98" t="n">
-        <v>-9.78923805492834</v>
+        <v>18.3166652015192</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-4.90724360310753</v>
+        <v>10.5841574203535</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.63573032822224</v>
+        <v>11.3348928651486</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.99208063232125</v>
+        <v>12.0709613570468</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.49816159278998</v>
+        <v>14.1503826164398</v>
       </c>
       <c r="E99" t="n">
-        <v>-6.77314616956406</v>
+        <v>-6.72674872972246</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.76301893669592</v>
+        <v>-7.53953447794134</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.50049197228493</v>
+        <v>-7.83403415317596</v>
       </c>
       <c r="H99" t="n">
-        <v>-8.20089930855933</v>
+        <v>-8.67683619401943</v>
       </c>
       <c r="I99" t="n">
-        <v>-9.19997872520372</v>
+        <v>-9.45692306549311</v>
       </c>
       <c r="J99" t="n">
-        <v>-9.43564674905262</v>
+        <v>-9.53234072898522</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.51927231580588</v>
+        <v>9.36423403792652</v>
       </c>
       <c r="B100" t="n">
-        <v>10.8069283000928</v>
+        <v>9.7198544964213</v>
       </c>
       <c r="C100" t="n">
-        <v>12.0443813576392</v>
+        <v>11.2816649909118</v>
       </c>
       <c r="D100" t="n">
-        <v>13.9235837519734</v>
+        <v>12.2135351369344</v>
       </c>
       <c r="E100" t="n">
-        <v>14.3350567903892</v>
+        <v>12.6762241729094</v>
       </c>
       <c r="F100" t="n">
-        <v>15.5092027293418</v>
+        <v>14.0190760298218</v>
       </c>
       <c r="G100" t="n">
-        <v>15.7373521629314</v>
+        <v>15.2369712090217</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.72757504997314</v>
+        <v>18.0343483683897</v>
       </c>
       <c r="I100" t="n">
-        <v>-9.35287311937035</v>
+        <v>17.5279813112822</v>
       </c>
       <c r="J100" t="n">
-        <v>-9.32049892529649</v>
+        <v>17.5261023952122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.6693416781376</v>
+        <v>10.5362573777496</v>
       </c>
       <c r="B101" t="n">
-        <v>11.6097638004505</v>
+        <v>9.94434310518266</v>
       </c>
       <c r="C101" t="n">
-        <v>12.825177866801</v>
+        <v>12.2345926659027</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.27544179416939</v>
+        <v>12.9199264516502</v>
       </c>
       <c r="E101" t="n">
-        <v>-6.77002310554371</v>
+        <v>13.826605923373</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.51673583160803</v>
+        <v>16.6126179235421</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.7843796159882</v>
+        <v>16.112981967834</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.78542856588702</v>
+        <v>16.4348836753108</v>
       </c>
       <c r="I101" t="n">
-        <v>-9.12474197320292</v>
+        <v>18.2338502798105</v>
       </c>
       <c r="J101" t="n">
-        <v>-9.31232575974563</v>
+        <v>19.6486178821093</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-5.08032415160266</v>
+        <v>-5.44310110174297</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.33491738724924</v>
+        <v>-5.49272725202449</v>
       </c>
       <c r="C102" t="n">
-        <v>-6.28186177699755</v>
+        <v>-5.52885237632769</v>
       </c>
       <c r="D102" t="n">
-        <v>13.1856577310982</v>
+        <v>-6.58271293425714</v>
       </c>
       <c r="E102" t="n">
-        <v>12.2665025629689</v>
+        <v>-6.94958680172002</v>
       </c>
       <c r="F102" t="n">
-        <v>15.4182274161236</v>
+        <v>-7.56060494025497</v>
       </c>
       <c r="G102" t="n">
-        <v>15.7421321923844</v>
+        <v>-8.37953056414554</v>
       </c>
       <c r="H102" t="n">
-        <v>16.1822678754903</v>
+        <v>-8.76029840919831</v>
       </c>
       <c r="I102" t="n">
-        <v>17.7575585767255</v>
+        <v>-8.98528031321692</v>
       </c>
       <c r="J102" t="n">
-        <v>19.3845056354289</v>
+        <v>-9.61141341314878</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.60530711134724</v>
+        <v>9.81355635838619</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.35854611193397</v>
+        <v>10.2409820157858</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.88141565194779</v>
+        <v>10.9363461799658</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.6588340638902</v>
+        <v>13.6667759878917</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.28477933216776</v>
+        <v>12.9825616534404</v>
       </c>
       <c r="F103" t="n">
-        <v>-7.51487266068106</v>
+        <v>15.5246202927339</v>
       </c>
       <c r="G103" t="n">
-        <v>-8.52750056270815</v>
+        <v>15.1311609597968</v>
       </c>
       <c r="H103" t="n">
-        <v>-8.20218381956657</v>
+        <v>16.7572065814946</v>
       </c>
       <c r="I103" t="n">
-        <v>-9.0895094298048</v>
+        <v>18.2881781661405</v>
       </c>
       <c r="J103" t="n">
-        <v>-9.53950984308806</v>
+        <v>17.3483301296053</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-5.20196276234754</v>
+        <v>9.86722522988986</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.32017645532108</v>
+        <v>9.424534835174</v>
       </c>
       <c r="C104" t="n">
-        <v>-6.2471427724524</v>
+        <v>10.8972766166461</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.84557484651389</v>
+        <v>12.6434531589129</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.09599995376125</v>
+        <v>14.6921623493942</v>
       </c>
       <c r="F104" t="n">
-        <v>-7.56514169096324</v>
+        <v>15.8124047493901</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.66366943463033</v>
+        <v>17.449993336255</v>
       </c>
       <c r="H104" t="n">
-        <v>-8.48697952429079</v>
+        <v>16.4063443840241</v>
       </c>
       <c r="I104" t="n">
-        <v>-8.7050169663588</v>
+        <v>19.1866706649109</v>
       </c>
       <c r="J104" t="n">
-        <v>-9.17368490857177</v>
+        <v>19.6176302427479</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-5.00364270297196</v>
+        <v>9.87736481245819</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.97285913642404</v>
+        <v>10.4646856563278</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.48163711302608</v>
+        <v>12.1967296871539</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.55667555997687</v>
+        <v>14.3531478117592</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.23445193269213</v>
+        <v>15.1703428559478</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.31246884668802</v>
+        <v>13.5504095616521</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.88946001480241</v>
+        <v>16.3670897407833</v>
       </c>
       <c r="H105" t="n">
-        <v>-8.37670549770963</v>
+        <v>16.324561241022</v>
       </c>
       <c r="I105" t="n">
-        <v>-8.58765199968925</v>
+        <v>-9.13960758397786</v>
       </c>
       <c r="J105" t="n">
-        <v>-9.59601577033805</v>
+        <v>-9.41922583182548</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11.3383756305112</v>
+        <v>9.72245278150772</v>
       </c>
       <c r="B106" t="n">
-        <v>10.430765193009</v>
+        <v>10.73055772134</v>
       </c>
       <c r="C106" t="n">
-        <v>12.3174212188568</v>
+        <v>10.6557231151382</v>
       </c>
       <c r="D106" t="n">
-        <v>13.8441876208414</v>
+        <v>13.1130096209283</v>
       </c>
       <c r="E106" t="n">
-        <v>14.202589256095</v>
+        <v>14.1609194661903</v>
       </c>
       <c r="F106" t="n">
-        <v>-7.42304834027487</v>
+        <v>14.4730735500454</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.72379087717107</v>
+        <v>-7.64227491002453</v>
       </c>
       <c r="H106" t="n">
-        <v>-8.63135612644946</v>
+        <v>-8.34451232701486</v>
       </c>
       <c r="I106" t="n">
-        <v>-9.04947584895566</v>
+        <v>-8.85041514833863</v>
       </c>
       <c r="J106" t="n">
-        <v>-9.13109654932949</v>
+        <v>-9.48541213857541</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.71364941767646</v>
+        <v>7.43950297103059</v>
       </c>
       <c r="B107" t="n">
-        <v>10.9198337020796</v>
+        <v>10.4244006501827</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.84577169992249</v>
+        <v>12.5694720619521</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.52485204155797</v>
+        <v>12.9581086823047</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.59940930840314</v>
+        <v>16.5782865386242</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.2719774652644</v>
+        <v>15.1430439353841</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.04589258443802</v>
+        <v>15.019221275581</v>
       </c>
       <c r="H107" t="n">
-        <v>-8.44227767256901</v>
+        <v>16.4176670051038</v>
       </c>
       <c r="I107" t="n">
-        <v>-8.61519716565703</v>
+        <v>18.2861341933779</v>
       </c>
       <c r="J107" t="n">
-        <v>-9.16956987018929</v>
+        <v>18.6153246589782</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5.15332962087588</v>
+        <v>10.4108212609008</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.81796050009803</v>
+        <v>11.9095856837087</v>
       </c>
       <c r="C108" t="n">
-        <v>-5.10694947184344</v>
+        <v>11.5125781787256</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.40880909994964</v>
+        <v>13.6256162444645</v>
       </c>
       <c r="E108" t="n">
-        <v>-6.88947863235167</v>
+        <v>15.3431246835917</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.57109937923313</v>
+        <v>13.7848175497238</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.92250675124708</v>
+        <v>16.3706428571124</v>
       </c>
       <c r="H108" t="n">
-        <v>-8.82912198043424</v>
+        <v>17.0458399271482</v>
       </c>
       <c r="I108" t="n">
-        <v>-8.79895068474801</v>
+        <v>17.3501986003764</v>
       </c>
       <c r="J108" t="n">
-        <v>-9.14822182893321</v>
+        <v>21.0502129424446</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.9962864429808</v>
+        <v>10.5113355333173</v>
       </c>
       <c r="B109" t="n">
-        <v>10.8021967258434</v>
+        <v>11.5264550296107</v>
       </c>
       <c r="C109" t="n">
-        <v>12.965646685772</v>
+        <v>12.1516970768328</v>
       </c>
       <c r="D109" t="n">
-        <v>13.1987069226732</v>
+        <v>12.0488569790923</v>
       </c>
       <c r="E109" t="n">
-        <v>14.5359550906395</v>
+        <v>12.97227473785</v>
       </c>
       <c r="F109" t="n">
-        <v>14.4672633766126</v>
+        <v>16.2952467049118</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.75318786703297</v>
+        <v>16.5376710773108</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.36012331654581</v>
+        <v>16.8382587766639</v>
       </c>
       <c r="I109" t="n">
-        <v>-9.20717863516575</v>
+        <v>17.8683437491766</v>
       </c>
       <c r="J109" t="n">
-        <v>-9.19211840475746</v>
+        <v>17.7913302168888</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.38903925872112</v>
+        <v>10.5285615336211</v>
       </c>
       <c r="B110" t="n">
-        <v>10.8399478260605</v>
+        <v>11.6470563921847</v>
       </c>
       <c r="C110" t="n">
-        <v>11.4715798429573</v>
+        <v>11.9896608889185</v>
       </c>
       <c r="D110" t="n">
-        <v>14.7732443941266</v>
+        <v>13.1179658327806</v>
       </c>
       <c r="E110" t="n">
-        <v>14.8938810524279</v>
+        <v>13.7433202641275</v>
       </c>
       <c r="F110" t="n">
-        <v>15.2049197073017</v>
+        <v>14.7271471028435</v>
       </c>
       <c r="G110" t="n">
-        <v>17.5212128110129</v>
+        <v>16.9288622758057</v>
       </c>
       <c r="H110" t="n">
-        <v>17.9140180268959</v>
+        <v>16.6768111546866</v>
       </c>
       <c r="I110" t="n">
-        <v>17.81277635016</v>
+        <v>18.2631969646729</v>
       </c>
       <c r="J110" t="n">
-        <v>-9.67885081967847</v>
+        <v>17.8558724747514</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-5.01373981125325</v>
+        <v>-4.91869541027449</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.85141046615253</v>
+        <v>-5.92553373795792</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.18346011367835</v>
+        <v>-6.19095815913057</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.57017433855976</v>
+        <v>-6.51394008698104</v>
       </c>
       <c r="E111" t="n">
-        <v>-6.83828111862407</v>
+        <v>-6.70474334990535</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.72305873552691</v>
+        <v>-7.71085939331366</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.40298930854419</v>
+        <v>-7.93537569410667</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.4787983415588</v>
+        <v>-8.78030932753201</v>
       </c>
       <c r="I111" t="n">
-        <v>-9.51870511836947</v>
+        <v>-9.13328964020018</v>
       </c>
       <c r="J111" t="n">
-        <v>-9.71417331914055</v>
+        <v>-9.24118470830755</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.2606910538483</v>
+        <v>9.47600745228756</v>
       </c>
       <c r="B112" t="n">
-        <v>10.3309362823308</v>
+        <v>10.7070254524449</v>
       </c>
       <c r="C112" t="n">
-        <v>12.2650745285177</v>
+        <v>11.702820165509</v>
       </c>
       <c r="D112" t="n">
-        <v>12.8270033460957</v>
+        <v>12.2461802724993</v>
       </c>
       <c r="E112" t="n">
-        <v>13.2383378307531</v>
+        <v>13.4090520023843</v>
       </c>
       <c r="F112" t="n">
-        <v>15.069323550721</v>
+        <v>14.5182670353505</v>
       </c>
       <c r="G112" t="n">
-        <v>15.5193341157651</v>
+        <v>16.2018154118486</v>
       </c>
       <c r="H112" t="n">
-        <v>16.5596640910133</v>
+        <v>17.1544663108914</v>
       </c>
       <c r="I112" t="n">
-        <v>18.9341616352694</v>
+        <v>18.1515081526965</v>
       </c>
       <c r="J112" t="n">
-        <v>19.8159618944337</v>
+        <v>18.6338417204521</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.03741596413684</v>
+        <v>-5.13645469928354</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.74494764160497</v>
+        <v>-5.10179312818621</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.40272250515449</v>
+        <v>-5.6994657439553</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.40686316167228</v>
+        <v>-6.48142196797016</v>
       </c>
       <c r="E113" t="n">
-        <v>-6.964678865159</v>
+        <v>-6.80985707689415</v>
       </c>
       <c r="F113" t="n">
-        <v>-7.26217725407445</v>
+        <v>-7.10422224784817</v>
       </c>
       <c r="G113" t="n">
-        <v>-8.21301580415829</v>
+        <v>-8.1908433413911</v>
       </c>
       <c r="H113" t="n">
-        <v>-8.51053896647425</v>
+        <v>-8.93266083950128</v>
       </c>
       <c r="I113" t="n">
-        <v>-9.06706567146834</v>
+        <v>-8.67082613924576</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.1496149868827</v>
+        <v>-9.41971255177073</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.5670275956335</v>
+        <v>9.89918212705675</v>
       </c>
       <c r="B114" t="n">
-        <v>10.2005988160457</v>
+        <v>11.3591513051395</v>
       </c>
       <c r="C114" t="n">
-        <v>10.4018370571585</v>
+        <v>12.1250666682784</v>
       </c>
       <c r="D114" t="n">
-        <v>11.8395426329573</v>
+        <v>12.0398369046265</v>
       </c>
       <c r="E114" t="n">
-        <v>14.5740371733956</v>
+        <v>15.1141919018008</v>
       </c>
       <c r="F114" t="n">
-        <v>15.28382110811</v>
+        <v>15.4359307749882</v>
       </c>
       <c r="G114" t="n">
-        <v>15.9085965906482</v>
+        <v>17.0806151636158</v>
       </c>
       <c r="H114" t="n">
-        <v>17.076678114332</v>
+        <v>17.7168977382415</v>
       </c>
       <c r="I114" t="n">
-        <v>17.4798297510913</v>
+        <v>17.6184862194537</v>
       </c>
       <c r="J114" t="n">
-        <v>17.7375879491411</v>
+        <v>19.5487388259293</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.0613488493715</v>
+        <v>-5.21087807223576</v>
       </c>
       <c r="B115" t="n">
-        <v>11.7116660476233</v>
+        <v>-4.97711126214104</v>
       </c>
       <c r="C115" t="n">
-        <v>11.3743436950294</v>
+        <v>-6.06033330348497</v>
       </c>
       <c r="D115" t="n">
-        <v>11.9057857624699</v>
+        <v>-6.69254439179185</v>
       </c>
       <c r="E115" t="n">
-        <v>13.1349286271666</v>
+        <v>-6.90069174731404</v>
       </c>
       <c r="F115" t="n">
-        <v>14.7115275377972</v>
+        <v>-7.472677961313</v>
       </c>
       <c r="G115" t="n">
-        <v>16.4265801571581</v>
+        <v>-7.70041176258019</v>
       </c>
       <c r="H115" t="n">
-        <v>16.7239359973214</v>
+        <v>-8.25993607541667</v>
       </c>
       <c r="I115" t="n">
-        <v>16.6949904376934</v>
+        <v>-9.19133304718731</v>
       </c>
       <c r="J115" t="n">
-        <v>19.5097796754504</v>
+        <v>-9.32524885500847</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>11.2755746069345</v>
+        <v>-4.50729839746388</v>
       </c>
       <c r="B116" t="n">
-        <v>11.0381311000906</v>
+        <v>-5.25425091849996</v>
       </c>
       <c r="C116" t="n">
-        <v>12.3752997205884</v>
+        <v>-6.30242186092616</v>
       </c>
       <c r="D116" t="n">
-        <v>12.569616645448</v>
+        <v>-6.57228385648532</v>
       </c>
       <c r="E116" t="n">
-        <v>13.875616906733</v>
+        <v>-7.58671328708747</v>
       </c>
       <c r="F116" t="n">
-        <v>14.6105774470483</v>
+        <v>-7.42908375449572</v>
       </c>
       <c r="G116" t="n">
-        <v>15.4472000981099</v>
+        <v>-7.67768582665582</v>
       </c>
       <c r="H116" t="n">
-        <v>15.3340275088862</v>
+        <v>-8.11277063931946</v>
       </c>
       <c r="I116" t="n">
-        <v>18.3328239182474</v>
+        <v>-9.04254999457347</v>
       </c>
       <c r="J116" t="n">
-        <v>18.5341342954358</v>
+        <v>-9.51280052771278</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8.95339703144696</v>
+        <v>-4.95805447177804</v>
       </c>
       <c r="B117" t="n">
-        <v>11.7759029119496</v>
+        <v>-5.53863889000562</v>
       </c>
       <c r="C117" t="n">
-        <v>12.1159220621516</v>
+        <v>-5.69169292109321</v>
       </c>
       <c r="D117" t="n">
-        <v>12.2765545760279</v>
+        <v>-6.16016674518984</v>
       </c>
       <c r="E117" t="n">
-        <v>13.40557856949</v>
+        <v>-7.06742378648852</v>
       </c>
       <c r="F117" t="n">
-        <v>15.6001061368185</v>
+        <v>-7.51281972091913</v>
       </c>
       <c r="G117" t="n">
-        <v>16.1923921701333</v>
+        <v>-7.61416730145802</v>
       </c>
       <c r="H117" t="n">
-        <v>16.9352963918752</v>
+        <v>-8.36362275083393</v>
       </c>
       <c r="I117" t="n">
-        <v>18.5818651543309</v>
+        <v>-9.32571787811773</v>
       </c>
       <c r="J117" t="n">
-        <v>18.9981178551775</v>
+        <v>19.4803540870479</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.06319754845521</v>
+        <v>10.309574230431</v>
       </c>
       <c r="B118" t="n">
-        <v>-5.15884318692121</v>
+        <v>11.7323223535052</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.95933961554857</v>
+        <v>11.3345073329976</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.61535319970356</v>
+        <v>13.3775454798934</v>
       </c>
       <c r="E118" t="n">
-        <v>-6.57957681762364</v>
+        <v>13.2508207450967</v>
       </c>
       <c r="F118" t="n">
-        <v>-7.52668215710781</v>
+        <v>14.7190225506344</v>
       </c>
       <c r="G118" t="n">
-        <v>-8.01384644187438</v>
+        <v>15.5043712841458</v>
       </c>
       <c r="H118" t="n">
-        <v>-7.97660632738098</v>
+        <v>-8.52108806407389</v>
       </c>
       <c r="I118" t="n">
-        <v>-8.9734046397896</v>
+        <v>-9.22954963363837</v>
       </c>
       <c r="J118" t="n">
-        <v>-9.64377522083855</v>
+        <v>-9.48195539815613</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.80374205911549</v>
+        <v>-5.01929657616179</v>
       </c>
       <c r="B119" t="n">
-        <v>10.572355126992</v>
+        <v>-5.53438834964906</v>
       </c>
       <c r="C119" t="n">
-        <v>12.0098351333518</v>
+        <v>-5.90469298771372</v>
       </c>
       <c r="D119" t="n">
-        <v>12.7847068767242</v>
+        <v>-6.29193441878023</v>
       </c>
       <c r="E119" t="n">
-        <v>13.3183467755005</v>
+        <v>-7.60328874988109</v>
       </c>
       <c r="F119" t="n">
-        <v>15.1124401761182</v>
+        <v>-7.57391115296101</v>
       </c>
       <c r="G119" t="n">
-        <v>14.3366695352039</v>
+        <v>-7.96327415342561</v>
       </c>
       <c r="H119" t="n">
-        <v>17.2272577232054</v>
+        <v>-8.73681298898516</v>
       </c>
       <c r="I119" t="n">
-        <v>17.6518785261197</v>
+        <v>-8.75358913557471</v>
       </c>
       <c r="J119" t="n">
-        <v>18.7638225411804</v>
+        <v>-9.49003329556243</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.0462792722842</v>
+        <v>10.2656539384784</v>
       </c>
       <c r="B120" t="n">
-        <v>11.7370564491121</v>
+        <v>10.208350149811</v>
       </c>
       <c r="C120" t="n">
-        <v>11.8297479291378</v>
+        <v>12.1653317228323</v>
       </c>
       <c r="D120" t="n">
-        <v>12.2890938107457</v>
+        <v>11.7170387127976</v>
       </c>
       <c r="E120" t="n">
-        <v>13.7413323566878</v>
+        <v>-6.83883520803788</v>
       </c>
       <c r="F120" t="n">
-        <v>15.7098104443106</v>
+        <v>-7.19133445923758</v>
       </c>
       <c r="G120" t="n">
-        <v>16.0621115279322</v>
+        <v>-8.02632629366076</v>
       </c>
       <c r="H120" t="n">
-        <v>16.1525322769225</v>
+        <v>-8.45514987320753</v>
       </c>
       <c r="I120" t="n">
-        <v>17.7282220845602</v>
+        <v>-9.19839803953641</v>
       </c>
       <c r="J120" t="n">
-        <v>18.6178788309369</v>
+        <v>-9.59179223590972</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.89746362785852</v>
+        <v>9.8463184621599</v>
       </c>
       <c r="B121" t="n">
-        <v>11.100656233043</v>
+        <v>9.33426649881163</v>
       </c>
       <c r="C121" t="n">
-        <v>11.3219956669674</v>
+        <v>12.1750307788909</v>
       </c>
       <c r="D121" t="n">
-        <v>13.1195390163076</v>
+        <v>12.8379943776734</v>
       </c>
       <c r="E121" t="n">
-        <v>13.1906177720589</v>
+        <v>13.5359033610472</v>
       </c>
       <c r="F121" t="n">
-        <v>13.3541109474065</v>
+        <v>15.6679459831315</v>
       </c>
       <c r="G121" t="n">
-        <v>14.8335214705792</v>
+        <v>16.3017114022388</v>
       </c>
       <c r="H121" t="n">
-        <v>17.1999163828224</v>
+        <v>-8.74539183827746</v>
       </c>
       <c r="I121" t="n">
-        <v>16.4936365554974</v>
+        <v>-9.2277714412354</v>
       </c>
       <c r="J121" t="n">
-        <v>19.710903571544</v>
+        <v>-10.0210983782238</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10.0694247980099</v>
+        <v>-4.93975394075286</v>
       </c>
       <c r="B122" t="n">
-        <v>11.2083690965011</v>
+        <v>-5.33089269447745</v>
       </c>
       <c r="C122" t="n">
-        <v>11.1343593008944</v>
+        <v>-5.69660768239566</v>
       </c>
       <c r="D122" t="n">
-        <v>12.9731491251828</v>
+        <v>-6.74638712531924</v>
       </c>
       <c r="E122" t="n">
-        <v>14.9440836623664</v>
+        <v>-7.4596414172776</v>
       </c>
       <c r="F122" t="n">
-        <v>16.034711057471</v>
+        <v>-7.86884910296456</v>
       </c>
       <c r="G122" t="n">
-        <v>16.3299137033837</v>
+        <v>-7.77545078132462</v>
       </c>
       <c r="H122" t="n">
-        <v>18.3979818763529</v>
+        <v>-8.14831332138353</v>
       </c>
       <c r="I122" t="n">
-        <v>18.2080533559425</v>
+        <v>-8.6640409649683</v>
       </c>
       <c r="J122" t="n">
-        <v>18.9534695750279</v>
+        <v>-9.57631757535306</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.6751277683555</v>
+        <v>-4.92436750253161</v>
       </c>
       <c r="B123" t="n">
-        <v>11.0578978520961</v>
+        <v>-6.01638933229054</v>
       </c>
       <c r="C123" t="n">
-        <v>11.9556242823227</v>
+        <v>-5.78959243117451</v>
       </c>
       <c r="D123" t="n">
-        <v>12.4395446729244</v>
+        <v>-6.70547795487106</v>
       </c>
       <c r="E123" t="n">
-        <v>16.3425110707816</v>
+        <v>-7.22325808922806</v>
       </c>
       <c r="F123" t="n">
-        <v>13.3048423870737</v>
+        <v>-7.16480695003079</v>
       </c>
       <c r="G123" t="n">
-        <v>17.4789557336727</v>
+        <v>-8.02294934246089</v>
       </c>
       <c r="H123" t="n">
-        <v>17.3584811488884</v>
+        <v>-8.72232507351223</v>
       </c>
       <c r="I123" t="n">
-        <v>17.7345754038427</v>
+        <v>-8.91380501414472</v>
       </c>
       <c r="J123" t="n">
-        <v>18.9882005711099</v>
+        <v>-9.4946644672327</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.25200102097001</v>
+        <v>11.6362422567767</v>
       </c>
       <c r="B124" t="n">
-        <v>10.910960556479</v>
+        <v>12.5726485696762</v>
       </c>
       <c r="C124" t="n">
-        <v>11.5555951870213</v>
+        <v>12.2355191242298</v>
       </c>
       <c r="D124" t="n">
-        <v>15.0863857820019</v>
+        <v>12.4179102056588</v>
       </c>
       <c r="E124" t="n">
-        <v>13.2138150652767</v>
+        <v>14.4313355342216</v>
       </c>
       <c r="F124" t="n">
-        <v>14.522111590296</v>
+        <v>15.2283252338035</v>
       </c>
       <c r="G124" t="n">
-        <v>16.2595925586987</v>
+        <v>16.5074903406764</v>
       </c>
       <c r="H124" t="n">
-        <v>17.5404646212954</v>
+        <v>17.523999601753</v>
       </c>
       <c r="I124" t="n">
-        <v>18.0275253401864</v>
+        <v>17.2438459258875</v>
       </c>
       <c r="J124" t="n">
-        <v>19.6082573021892</v>
+        <v>19.5380900163239</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.92146959702238</v>
+        <v>10.7711390157645</v>
       </c>
       <c r="B125" t="n">
-        <v>12.014738188815</v>
+        <v>12.0409615501682</v>
       </c>
       <c r="C125" t="n">
-        <v>11.7402074774092</v>
+        <v>13.1782762038384</v>
       </c>
       <c r="D125" t="n">
-        <v>13.2508937635688</v>
+        <v>13.2119944862923</v>
       </c>
       <c r="E125" t="n">
-        <v>14.3076748571642</v>
+        <v>13.3176565612091</v>
       </c>
       <c r="F125" t="n">
-        <v>13.7723731175908</v>
+        <v>14.7597055842103</v>
       </c>
       <c r="G125" t="n">
-        <v>17.3839439557186</v>
+        <v>16.698376427633</v>
       </c>
       <c r="H125" t="n">
-        <v>18.1345357227305</v>
+        <v>16.0024787265085</v>
       </c>
       <c r="I125" t="n">
-        <v>19.0538073715725</v>
+        <v>17.2360509233298</v>
       </c>
       <c r="J125" t="n">
-        <v>19.8064284510935</v>
+        <v>19.030398206634</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.3894415585258</v>
+        <v>-4.74791755161131</v>
       </c>
       <c r="B126" t="n">
-        <v>11.6326239857165</v>
+        <v>-5.33132639234996</v>
       </c>
       <c r="C126" t="n">
-        <v>12.1688968093641</v>
+        <v>-5.97562233362166</v>
       </c>
       <c r="D126" t="n">
-        <v>13.5223814759577</v>
+        <v>-6.39691090785363</v>
       </c>
       <c r="E126" t="n">
-        <v>12.78025855952</v>
+        <v>-7.09553628009828</v>
       </c>
       <c r="F126" t="n">
-        <v>14.0934884112305</v>
+        <v>-7.56065805889949</v>
       </c>
       <c r="G126" t="n">
-        <v>15.9524304826177</v>
+        <v>-8.24490450622828</v>
       </c>
       <c r="H126" t="n">
-        <v>18.1718767403234</v>
+        <v>-8.69969684120233</v>
       </c>
       <c r="I126" t="n">
-        <v>17.7917606459285</v>
+        <v>-9.10106055969137</v>
       </c>
       <c r="J126" t="n">
-        <v>20.757010739896</v>
+        <v>-9.30547597473192</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.82818267477001</v>
+        <v>9.5092469225049</v>
       </c>
       <c r="B127" t="n">
-        <v>9.97978855854621</v>
+        <v>10.4576148082853</v>
       </c>
       <c r="C127" t="n">
-        <v>12.2582558368178</v>
+        <v>10.5227533849438</v>
       </c>
       <c r="D127" t="n">
-        <v>13.1838611078509</v>
+        <v>12.6079308066628</v>
       </c>
       <c r="E127" t="n">
-        <v>12.8228414256375</v>
+        <v>12.9428446906596</v>
       </c>
       <c r="F127" t="n">
-        <v>16.3729140275863</v>
+        <v>15.8752518882172</v>
       </c>
       <c r="G127" t="n">
-        <v>17.0391887284508</v>
+        <v>16.7736528175272</v>
       </c>
       <c r="H127" t="n">
-        <v>17.2308629815825</v>
+        <v>17.1630284287326</v>
       </c>
       <c r="I127" t="n">
-        <v>18.8630567404651</v>
+        <v>18.4684981120871</v>
       </c>
       <c r="J127" t="n">
-        <v>18.4015148660477</v>
+        <v>18.8639854512133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>11.5334649121569</v>
+        <v>9.3007218599461</v>
       </c>
       <c r="B128" t="n">
-        <v>9.53539826726418</v>
+        <v>12.5641511031336</v>
       </c>
       <c r="C128" t="n">
-        <v>10.7181052549676</v>
+        <v>12.2999907615615</v>
       </c>
       <c r="D128" t="n">
-        <v>13.7803367959986</v>
+        <v>13.5533257655361</v>
       </c>
       <c r="E128" t="n">
-        <v>13.238098285869</v>
+        <v>14.4848010089506</v>
       </c>
       <c r="F128" t="n">
-        <v>13.5737809005247</v>
+        <v>15.1057663313973</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.53549164591966</v>
+        <v>15.6770282004678</v>
       </c>
       <c r="H128" t="n">
-        <v>-9.14264634351135</v>
+        <v>18.0321760047946</v>
       </c>
       <c r="I128" t="n">
-        <v>-9.27282109032408</v>
+        <v>17.2751888181448</v>
       </c>
       <c r="J128" t="n">
-        <v>17.8165884249797</v>
+        <v>19.0381600071211</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.38165048771118</v>
+        <v>9.54012205851399</v>
       </c>
       <c r="B129" t="n">
-        <v>12.0495503003808</v>
+        <v>11.8802455328937</v>
       </c>
       <c r="C129" t="n">
-        <v>12.0769271119885</v>
+        <v>12.1113432711387</v>
       </c>
       <c r="D129" t="n">
-        <v>12.6418544626467</v>
+        <v>12.8279023950874</v>
       </c>
       <c r="E129" t="n">
-        <v>13.9427810032334</v>
+        <v>13.142916205051</v>
       </c>
       <c r="F129" t="n">
-        <v>-7.43210343467364</v>
+        <v>15.0006290272969</v>
       </c>
       <c r="G129" t="n">
-        <v>-8.44081724140558</v>
+        <v>15.1543899629544</v>
       </c>
       <c r="H129" t="n">
-        <v>-8.55149569760417</v>
+        <v>15.9442358296535</v>
       </c>
       <c r="I129" t="n">
-        <v>-8.7425935259645</v>
+        <v>17.0750757867833</v>
       </c>
       <c r="J129" t="n">
-        <v>-9.44425145582547</v>
+        <v>18.8234318450797</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.37960181812405</v>
+        <v>10.0002183487684</v>
       </c>
       <c r="B130" t="n">
-        <v>11.4849557240062</v>
+        <v>10.598858200608</v>
       </c>
       <c r="C130" t="n">
-        <v>12.2114260321888</v>
+        <v>13.2388758675695</v>
       </c>
       <c r="D130" t="n">
-        <v>13.6310939125215</v>
+        <v>13.2380913866548</v>
       </c>
       <c r="E130" t="n">
-        <v>15.1443041406911</v>
+        <v>13.1979417613113</v>
       </c>
       <c r="F130" t="n">
-        <v>17.6177716229896</v>
+        <v>15.1807020063349</v>
       </c>
       <c r="G130" t="n">
-        <v>16.2705705378425</v>
+        <v>16.0181976025166</v>
       </c>
       <c r="H130" t="n">
-        <v>17.1305367347608</v>
+        <v>-9.0490432095518</v>
       </c>
       <c r="I130" t="n">
-        <v>18.2305387324127</v>
+        <v>-8.90770091312967</v>
       </c>
       <c r="J130" t="n">
-        <v>19.0308162981906</v>
+        <v>-9.47952722039786</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.77091069155957</v>
+        <v>-4.90079920225044</v>
       </c>
       <c r="B131" t="n">
-        <v>11.7703393678279</v>
+        <v>-5.56714871817325</v>
       </c>
       <c r="C131" t="n">
-        <v>11.6779060561688</v>
+        <v>-6.21362636190991</v>
       </c>
       <c r="D131" t="n">
-        <v>12.8639183509317</v>
+        <v>-6.07448028009837</v>
       </c>
       <c r="E131" t="n">
-        <v>14.3685332739655</v>
+        <v>-7.02691169025945</v>
       </c>
       <c r="F131" t="n">
-        <v>14.149299924968</v>
+        <v>-7.56205366417157</v>
       </c>
       <c r="G131" t="n">
-        <v>15.8325784404084</v>
+        <v>-7.88878616854292</v>
       </c>
       <c r="H131" t="n">
-        <v>16.0570582634124</v>
+        <v>-8.55320573652086</v>
       </c>
       <c r="I131" t="n">
-        <v>19.173269745244</v>
+        <v>-9.29407437329423</v>
       </c>
       <c r="J131" t="n">
-        <v>19.0322677310293</v>
+        <v>-9.90286529365064</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.3118725426262</v>
+        <v>10.190770148906</v>
       </c>
       <c r="B132" t="n">
-        <v>11.380890741225</v>
+        <v>9.74901255861355</v>
       </c>
       <c r="C132" t="n">
-        <v>11.2443574422227</v>
+        <v>12.913946275104</v>
       </c>
       <c r="D132" t="n">
-        <v>13.0191768731861</v>
+        <v>14.2283710398041</v>
       </c>
       <c r="E132" t="n">
-        <v>12.7910075420018</v>
+        <v>13.3048976597204</v>
       </c>
       <c r="F132" t="n">
-        <v>17.3321017234572</v>
+        <v>14.9937582305856</v>
       </c>
       <c r="G132" t="n">
-        <v>16.0061996558905</v>
+        <v>15.3611910411991</v>
       </c>
       <c r="H132" t="n">
-        <v>15.8879328968575</v>
+        <v>17.469324186475</v>
       </c>
       <c r="I132" t="n">
-        <v>18.5048023287226</v>
+        <v>17.8299339983068</v>
       </c>
       <c r="J132" t="n">
-        <v>19.1307647212942</v>
+        <v>20.5720981851648</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.9837561128571</v>
+        <v>10.3115307013835</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.2813025931234</v>
+        <v>11.5671850647918</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.70713409469736</v>
+        <v>12.0560743512089</v>
       </c>
       <c r="D133" t="n">
-        <v>-6.94248301678822</v>
+        <v>13.1814259525584</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.02693551844864</v>
+        <v>13.816587853781</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.65315797351014</v>
+        <v>14.8148951662887</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.41875427917266</v>
+        <v>14.8339376386809</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.19887738034756</v>
+        <v>15.6914809150184</v>
       </c>
       <c r="I133" t="n">
-        <v>-9.05465100432272</v>
+        <v>18.4734508043768</v>
       </c>
       <c r="J133" t="n">
-        <v>-9.52820166397607</v>
+        <v>20.0291843244949</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.2760348340052</v>
+        <v>9.87543596441197</v>
       </c>
       <c r="B134" t="n">
-        <v>9.25882687821501</v>
+        <v>10.3915510245876</v>
       </c>
       <c r="C134" t="n">
-        <v>-5.72803516984584</v>
+        <v>10.3453730382033</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.51466166483878</v>
+        <v>12.4913901926577</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.07487921028563</v>
+        <v>14.3473929895932</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.85535356253198</v>
+        <v>15.7663206506978</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.973171736792</v>
+        <v>15.8239187214897</v>
       </c>
       <c r="H134" t="n">
-        <v>-8.69226897587016</v>
+        <v>17.1240438789589</v>
       </c>
       <c r="I134" t="n">
-        <v>-8.62744817755712</v>
+        <v>17.8054568876723</v>
       </c>
       <c r="J134" t="n">
-        <v>-9.08461227318583</v>
+        <v>19.0789970161321</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>11.1401434329135</v>
+        <v>9.39066631161909</v>
       </c>
       <c r="B135" t="n">
-        <v>11.4321510825386</v>
+        <v>12.528398348624</v>
       </c>
       <c r="C135" t="n">
-        <v>13.3171324186472</v>
+        <v>11.1696015988995</v>
       </c>
       <c r="D135" t="n">
-        <v>12.4908826633048</v>
+        <v>13.0913302948383</v>
       </c>
       <c r="E135" t="n">
-        <v>12.5186248585078</v>
+        <v>13.2715337766866</v>
       </c>
       <c r="F135" t="n">
-        <v>14.5524018432</v>
+        <v>15.086910936581</v>
       </c>
       <c r="G135" t="n">
-        <v>15.8042254070469</v>
+        <v>16.2219950608275</v>
       </c>
       <c r="H135" t="n">
-        <v>16.4500297751043</v>
+        <v>17.1948819154148</v>
       </c>
       <c r="I135" t="n">
-        <v>-9.16705435445565</v>
+        <v>-9.16533239513876</v>
       </c>
       <c r="J135" t="n">
-        <v>-9.3602024198716</v>
+        <v>-9.96795057958555</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-5.28212582851098</v>
+        <v>-5.29938819329677</v>
       </c>
       <c r="B136" t="n">
-        <v>-5.66362762876554</v>
+        <v>-5.36839735087025</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.75279091366833</v>
+        <v>-6.10813995086067</v>
       </c>
       <c r="D136" t="n">
-        <v>-6.4732517928012</v>
+        <v>-6.43450494990636</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.17440703513151</v>
+        <v>-6.73584797439349</v>
       </c>
       <c r="F136" t="n">
-        <v>-7.15680189663487</v>
+        <v>-7.95133199733788</v>
       </c>
       <c r="G136" t="n">
-        <v>-7.84816892675803</v>
+        <v>-8.16263113791046</v>
       </c>
       <c r="H136" t="n">
-        <v>-8.41230805044597</v>
+        <v>-8.28196646592109</v>
       </c>
       <c r="I136" t="n">
-        <v>-8.93031986331838</v>
+        <v>-8.98372128385359</v>
       </c>
       <c r="J136" t="n">
-        <v>-9.84665923642437</v>
+        <v>-9.72381615308682</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.64550045283205</v>
+        <v>10.8654528460433</v>
       </c>
       <c r="B137" t="n">
-        <v>10.4684401062145</v>
+        <v>11.1289491091033</v>
       </c>
       <c r="C137" t="n">
-        <v>10.9290781607547</v>
+        <v>13.7551448629592</v>
       </c>
       <c r="D137" t="n">
-        <v>12.8848338230128</v>
+        <v>13.3474657292642</v>
       </c>
       <c r="E137" t="n">
-        <v>15.5262382900168</v>
+        <v>13.7751458452666</v>
       </c>
       <c r="F137" t="n">
-        <v>17.1069076973395</v>
+        <v>14.9492006158807</v>
       </c>
       <c r="G137" t="n">
-        <v>14.8602743008428</v>
+        <v>15.2931046549387</v>
       </c>
       <c r="H137" t="n">
-        <v>16.27591550651</v>
+        <v>-8.21627351434904</v>
       </c>
       <c r="I137" t="n">
-        <v>18.4324425235131</v>
+        <v>-8.79687004480076</v>
       </c>
       <c r="J137" t="n">
-        <v>18.5701447366899</v>
+        <v>-9.46353760992436</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.92589180506076</v>
+        <v>10.2548445680712</v>
       </c>
       <c r="B138" t="n">
-        <v>9.66970021439246</v>
+        <v>9.69260617960436</v>
       </c>
       <c r="C138" t="n">
-        <v>12.8993612629236</v>
+        <v>12.4489484146386</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.68148576984238</v>
+        <v>12.2715710861974</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.5209678274379</v>
+        <v>14.4496173101107</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.69036735900515</v>
+        <v>15.600967833251</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.99488272245185</v>
+        <v>15.5751975397759</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.55121552978697</v>
+        <v>17.8205117565345</v>
       </c>
       <c r="I138" t="n">
-        <v>-8.84938649067897</v>
+        <v>18.4001988181851</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.41022634386198</v>
+        <v>19.9001729224073</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-5.01641828441002</v>
+        <v>-5.26840505866829</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.85470008455391</v>
+        <v>11.0781125371541</v>
       </c>
       <c r="C139" t="n">
-        <v>-6.12926022949879</v>
+        <v>12.0669886497985</v>
       </c>
       <c r="D139" t="n">
-        <v>-7.14294449275763</v>
+        <v>11.2867613684777</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.55899767265433</v>
+        <v>13.6084835151626</v>
       </c>
       <c r="F139" t="n">
-        <v>-7.2839670139402</v>
+        <v>14.1433401599923</v>
       </c>
       <c r="G139" t="n">
-        <v>-7.98509215847957</v>
+        <v>15.6066875231492</v>
       </c>
       <c r="H139" t="n">
-        <v>-8.76842747289508</v>
+        <v>17.3288764890405</v>
       </c>
       <c r="I139" t="n">
-        <v>-8.74154691209979</v>
+        <v>19.2332804877249</v>
       </c>
       <c r="J139" t="n">
-        <v>-9.50654683865977</v>
+        <v>18.0805865182083</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>11.5309733734176</v>
+        <v>9.91705270332315</v>
       </c>
       <c r="B140" t="n">
-        <v>10.4806280285225</v>
+        <v>11.0985005221854</v>
       </c>
       <c r="C140" t="n">
-        <v>10.5939498374577</v>
+        <v>-5.86269517817077</v>
       </c>
       <c r="D140" t="n">
-        <v>13.7931865284797</v>
+        <v>-6.37429804575243</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.8447677308904</v>
+        <v>-6.75582956000641</v>
       </c>
       <c r="F140" t="n">
-        <v>-8.36386701708618</v>
+        <v>-7.43676963663387</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.57620861532811</v>
+        <v>-8.08450581903379</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.45279119148918</v>
+        <v>-8.09349933440613</v>
       </c>
       <c r="I140" t="n">
-        <v>-9.57405924903673</v>
+        <v>-8.75269667979338</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.47677650246375</v>
+        <v>-8.97685336128075</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-4.83397779645254</v>
+        <v>9.89271890669743</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.20657654472299</v>
+        <v>11.5995291002285</v>
       </c>
       <c r="C141" t="n">
-        <v>-5.68566905487291</v>
+        <v>11.1709527900754</v>
       </c>
       <c r="D141" t="n">
-        <v>-6.57578112574107</v>
+        <v>12.5023058577944</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.93367451504888</v>
+        <v>14.5699308642968</v>
       </c>
       <c r="F141" t="n">
-        <v>-7.50559183263224</v>
+        <v>-7.21243771208001</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.29038155669098</v>
+        <v>-7.70853384953155</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.72468375106479</v>
+        <v>-8.77572956593052</v>
       </c>
       <c r="I141" t="n">
-        <v>-9.4190520262563</v>
+        <v>-9.09427805063312</v>
       </c>
       <c r="J141" t="n">
-        <v>-10.1579618023787</v>
+        <v>-9.49290785240622</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.78018873487257</v>
+        <v>-4.99194507199624</v>
       </c>
       <c r="B142" t="n">
-        <v>10.3219574683448</v>
+        <v>-6.10782411402794</v>
       </c>
       <c r="C142" t="n">
-        <v>11.8533963559815</v>
+        <v>-5.99188245521297</v>
       </c>
       <c r="D142" t="n">
-        <v>13.4582072875147</v>
+        <v>-6.37071681418919</v>
       </c>
       <c r="E142" t="n">
-        <v>13.8545469298487</v>
+        <v>-6.70041746920157</v>
       </c>
       <c r="F142" t="n">
-        <v>16.8429494311511</v>
+        <v>-7.44524805992146</v>
       </c>
       <c r="G142" t="n">
-        <v>15.330502630316</v>
+        <v>-8.27737626028238</v>
       </c>
       <c r="H142" t="n">
-        <v>17.544581838772</v>
+        <v>-8.80728798607171</v>
       </c>
       <c r="I142" t="n">
-        <v>17.9602897632421</v>
+        <v>-9.14378638645714</v>
       </c>
       <c r="J142" t="n">
-        <v>18.681603183096</v>
+        <v>-9.23716134459718</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-4.74682082780411</v>
+        <v>10.2693448045581</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.69774638037641</v>
+        <v>10.144743106298</v>
       </c>
       <c r="C143" t="n">
-        <v>-6.10896667794485</v>
+        <v>13.227945371269</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.44408335635069</v>
+        <v>13.577210431678</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.17530917951372</v>
+        <v>-6.86417483960645</v>
       </c>
       <c r="F143" t="n">
-        <v>-7.52752034945499</v>
+        <v>-7.29411187820743</v>
       </c>
       <c r="G143" t="n">
-        <v>-8.04974050227666</v>
+        <v>-8.62110729929011</v>
       </c>
       <c r="H143" t="n">
-        <v>-8.87330187073792</v>
+        <v>-8.75814160774851</v>
       </c>
       <c r="I143" t="n">
-        <v>-8.6859345509739</v>
+        <v>-8.91189560039824</v>
       </c>
       <c r="J143" t="n">
-        <v>-9.72496634869774</v>
+        <v>-9.18418865072727</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8.76813205261352</v>
+        <v>8.84178625544952</v>
       </c>
       <c r="B144" t="n">
-        <v>11.3651302686354</v>
+        <v>9.59706418569693</v>
       </c>
       <c r="C144" t="n">
-        <v>11.7987079428879</v>
+        <v>11.1766574371264</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.59695575390639</v>
+        <v>13.848703263596</v>
       </c>
       <c r="E144" t="n">
-        <v>-6.61979593448058</v>
+        <v>13.4797160676111</v>
       </c>
       <c r="F144" t="n">
-        <v>-7.36431530398551</v>
+        <v>13.2244405878282</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.7800052013222</v>
+        <v>15.274777330458</v>
       </c>
       <c r="H144" t="n">
-        <v>-8.80832457840865</v>
+        <v>15.2686931780636</v>
       </c>
       <c r="I144" t="n">
-        <v>-9.05456949031343</v>
+        <v>17.4919336514174</v>
       </c>
       <c r="J144" t="n">
-        <v>-9.10965612533823</v>
+        <v>18.527519903185</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-4.99259783720086</v>
+        <v>9.94364915564951</v>
       </c>
       <c r="B145" t="n">
-        <v>-5.77647125086211</v>
+        <v>8.98992780714947</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.95918937167035</v>
+        <v>11.5828515201453</v>
       </c>
       <c r="D145" t="n">
-        <v>-6.35806980872345</v>
+        <v>-6.54784100169911</v>
       </c>
       <c r="E145" t="n">
-        <v>-6.53246501649259</v>
+        <v>-7.02890314441483</v>
       </c>
       <c r="F145" t="n">
-        <v>-7.49380992328074</v>
+        <v>-7.44966855099469</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.27754791949471</v>
+        <v>-8.21287213227533</v>
       </c>
       <c r="H145" t="n">
-        <v>-8.22726267705524</v>
+        <v>-8.49521678875598</v>
       </c>
       <c r="I145" t="n">
-        <v>-9.14208183337512</v>
+        <v>-8.83139392039734</v>
       </c>
       <c r="J145" t="n">
-        <v>-9.8634102158023</v>
+        <v>-9.53383090291421</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.99581902557551</v>
+        <v>10.5845034646765</v>
       </c>
       <c r="B146" t="n">
-        <v>12.3084649804613</v>
+        <v>10.7140487639163</v>
       </c>
       <c r="C146" t="n">
-        <v>12.2174242058456</v>
+        <v>11.5950598219618</v>
       </c>
       <c r="D146" t="n">
-        <v>12.3516625306641</v>
+        <v>12.2215094601929</v>
       </c>
       <c r="E146" t="n">
-        <v>14.3238673571232</v>
+        <v>14.6627222160493</v>
       </c>
       <c r="F146" t="n">
-        <v>15.9827067060362</v>
+        <v>16.7632229768383</v>
       </c>
       <c r="G146" t="n">
-        <v>17.36728058842</v>
+        <v>15.484549753126</v>
       </c>
       <c r="H146" t="n">
-        <v>15.6882063597041</v>
+        <v>16.8153190964802</v>
       </c>
       <c r="I146" t="n">
-        <v>19.172670577694</v>
+        <v>19.1373240462279</v>
       </c>
       <c r="J146" t="n">
-        <v>17.6551340409474</v>
+        <v>18.6837571208665</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.2972425217944</v>
+        <v>-5.24035736042619</v>
       </c>
       <c r="B147" t="n">
-        <v>11.7283885993292</v>
+        <v>-5.26737665930835</v>
       </c>
       <c r="C147" t="n">
-        <v>10.6961938836621</v>
+        <v>12.7638133339356</v>
       </c>
       <c r="D147" t="n">
-        <v>13.4997621163209</v>
+        <v>12.954914475285</v>
       </c>
       <c r="E147" t="n">
-        <v>13.4903027662407</v>
+        <v>14.9942773043728</v>
       </c>
       <c r="F147" t="n">
-        <v>14.4394120360279</v>
+        <v>14.8712114591169</v>
       </c>
       <c r="G147" t="n">
-        <v>15.8156994597275</v>
+        <v>14.564854351744</v>
       </c>
       <c r="H147" t="n">
-        <v>17.4553608615573</v>
+        <v>17.0672714827052</v>
       </c>
       <c r="I147" t="n">
-        <v>17.3069953253112</v>
+        <v>17.7027782480717</v>
       </c>
       <c r="J147" t="n">
-        <v>18.9793562307004</v>
+        <v>19.4030830854521</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.551202102</v>
+        <v>-4.98274342048399</v>
       </c>
       <c r="B148" t="n">
-        <v>10.8548527930321</v>
+        <v>-5.54579829332973</v>
       </c>
       <c r="C148" t="n">
-        <v>11.7927412205399</v>
+        <v>-5.76437440267537</v>
       </c>
       <c r="D148" t="n">
-        <v>12.2906108707339</v>
+        <v>-6.74773764282687</v>
       </c>
       <c r="E148" t="n">
-        <v>14.4035880710529</v>
+        <v>-7.44580960300496</v>
       </c>
       <c r="F148" t="n">
-        <v>14.1450969070894</v>
+        <v>-7.38367572122918</v>
       </c>
       <c r="G148" t="n">
-        <v>16.4161033371561</v>
+        <v>-8.04644173585599</v>
       </c>
       <c r="H148" t="n">
-        <v>17.5455014967712</v>
+        <v>-8.5382891624715</v>
       </c>
       <c r="I148" t="n">
-        <v>17.9236240539039</v>
+        <v>-9.1627135507075</v>
       </c>
       <c r="J148" t="n">
-        <v>-9.76752032693808</v>
+        <v>-9.63635356828586</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.23198175292178</v>
+        <v>10.2287044785913</v>
       </c>
       <c r="B149" t="n">
-        <v>12.2495837604118</v>
+        <v>11.1815419543399</v>
       </c>
       <c r="C149" t="n">
-        <v>12.325996194198</v>
+        <v>12.7750785337213</v>
       </c>
       <c r="D149" t="n">
-        <v>12.4834454664236</v>
+        <v>13.3089374996588</v>
       </c>
       <c r="E149" t="n">
-        <v>14.9844925951217</v>
+        <v>14.308030341769</v>
       </c>
       <c r="F149" t="n">
-        <v>14.8458976545248</v>
+        <v>15.5971259855943</v>
       </c>
       <c r="G149" t="n">
-        <v>15.3320781243446</v>
+        <v>15.7562545861859</v>
       </c>
       <c r="H149" t="n">
-        <v>16.6138942676094</v>
+        <v>16.6277219989612</v>
       </c>
       <c r="I149" t="n">
-        <v>19.3201920363608</v>
+        <v>17.6922792075631</v>
       </c>
       <c r="J149" t="n">
-        <v>18.6241076965185</v>
+        <v>20.0368915073271</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>11.2121792823803</v>
+        <v>10.3274635136293</v>
       </c>
       <c r="B150" t="n">
-        <v>10.8420528500673</v>
+        <v>9.85850015730439</v>
       </c>
       <c r="C150" t="n">
-        <v>12.0432919440342</v>
+        <v>12.8693995433259</v>
       </c>
       <c r="D150" t="n">
-        <v>13.6029092104732</v>
+        <v>-6.17561662074108</v>
       </c>
       <c r="E150" t="n">
-        <v>13.6093152895256</v>
+        <v>-6.98836509370819</v>
       </c>
       <c r="F150" t="n">
-        <v>14.2276206201305</v>
+        <v>-7.60025553512501</v>
       </c>
       <c r="G150" t="n">
-        <v>16.542285556607</v>
+        <v>-7.80997273162682</v>
       </c>
       <c r="H150" t="n">
-        <v>16.3831925007874</v>
+        <v>-8.14981745180759</v>
       </c>
       <c r="I150" t="n">
-        <v>17.3899861545644</v>
+        <v>-9.2997695306238</v>
       </c>
       <c r="J150" t="n">
-        <v>19.126131033495</v>
+        <v>-9.25978310101666</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-4.96103214335819</v>
+        <v>10.1222810923162</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.26693713260466</v>
+        <v>11.4134730900859</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.75472380369696</v>
+        <v>13.1704975858242</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.09934018211812</v>
+        <v>12.369705250024</v>
       </c>
       <c r="E151" t="n">
-        <v>-6.7540419222389</v>
+        <v>14.2185742466115</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.84974599031502</v>
+        <v>15.8438494545104</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.75862604621948</v>
+        <v>15.7758794011899</v>
       </c>
       <c r="H151" t="n">
-        <v>-8.40212146635677</v>
+        <v>16.1269051057653</v>
       </c>
       <c r="I151" t="n">
-        <v>-8.57759817811893</v>
+        <v>19.2985086286769</v>
       </c>
       <c r="J151" t="n">
-        <v>-9.96731027379198</v>
+        <v>18.1329816098989</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-4.85550771294533</v>
+        <v>10.3547633899508</v>
       </c>
       <c r="B152" t="n">
-        <v>-4.95861835102063</v>
+        <v>10.6513720995101</v>
       </c>
       <c r="C152" t="n">
-        <v>-6.17921910962426</v>
+        <v>11.8371381433296</v>
       </c>
       <c r="D152" t="n">
-        <v>-6.23911853837614</v>
+        <v>13.7266877825531</v>
       </c>
       <c r="E152" t="n">
-        <v>-6.81612330925146</v>
+        <v>13.9470806094967</v>
       </c>
       <c r="F152" t="n">
-        <v>-7.99506764887001</v>
+        <v>15.7440192979274</v>
       </c>
       <c r="G152" t="n">
-        <v>-8.18429531956177</v>
+        <v>16.0328628004584</v>
       </c>
       <c r="H152" t="n">
-        <v>-8.36677351620022</v>
+        <v>17.3928891360334</v>
       </c>
       <c r="I152" t="n">
-        <v>-9.41422684485566</v>
+        <v>18.9746865178881</v>
       </c>
       <c r="J152" t="n">
-        <v>-9.04127563319316</v>
+        <v>19.2039917033464</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-5.07189738901068</v>
+        <v>10.1561756478256</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.33170316325054</v>
+        <v>10.5776375637002</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.91380683144804</v>
+        <v>12.8994139225502</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.69356418281173</v>
+        <v>14.0597160273982</v>
       </c>
       <c r="E153" t="n">
-        <v>-6.70093496167256</v>
+        <v>12.6785546003371</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.58729814148873</v>
+        <v>15.6658201119221</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.81659420743934</v>
+        <v>-7.83519927925904</v>
       </c>
       <c r="H153" t="n">
-        <v>-8.26644819865284</v>
+        <v>-8.28898103290179</v>
       </c>
       <c r="I153" t="n">
-        <v>-8.79470125644773</v>
+        <v>-8.98811058273705</v>
       </c>
       <c r="J153" t="n">
-        <v>-9.72204554323875</v>
+        <v>-9.58978637112499</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8.94386391216935</v>
+        <v>11.5216071970156</v>
       </c>
       <c r="B154" t="n">
-        <v>11.4071816709297</v>
+        <v>10.76944302764</v>
       </c>
       <c r="C154" t="n">
-        <v>13.3261023559625</v>
+        <v>12.189148641091</v>
       </c>
       <c r="D154" t="n">
-        <v>13.75881292262</v>
+        <v>14.1282266049372</v>
       </c>
       <c r="E154" t="n">
-        <v>14.7100488282447</v>
+        <v>13.6190189802582</v>
       </c>
       <c r="F154" t="n">
-        <v>15.8288539809649</v>
+        <v>15.149448461383</v>
       </c>
       <c r="G154" t="n">
-        <v>16.1298363511509</v>
+        <v>16.2202835959669</v>
       </c>
       <c r="H154" t="n">
-        <v>17.0679997107716</v>
+        <v>16.1571321553836</v>
       </c>
       <c r="I154" t="n">
-        <v>16.2859328224242</v>
+        <v>17.1338015909523</v>
       </c>
       <c r="J154" t="n">
-        <v>19.3027497417569</v>
+        <v>19.9283661404027</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.8308586759101</v>
+        <v>9.79955204767388</v>
       </c>
       <c r="B155" t="n">
-        <v>11.193349954201</v>
+        <v>10.0326673481648</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.85227812986541</v>
+        <v>12.7762855508851</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.78857968855021</v>
+        <v>12.8119424122696</v>
       </c>
       <c r="E155" t="n">
-        <v>-6.84368286200981</v>
+        <v>12.9666024097286</v>
       </c>
       <c r="F155" t="n">
-        <v>-7.60055420939676</v>
+        <v>15.6079173590451</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.88360427451587</v>
+        <v>15.0563290752482</v>
       </c>
       <c r="H155" t="n">
-        <v>-8.54778601095357</v>
+        <v>16.7011796266565</v>
       </c>
       <c r="I155" t="n">
-        <v>-8.94110038965006</v>
+        <v>18.160112309539</v>
       </c>
       <c r="J155" t="n">
-        <v>-9.77445238451122</v>
+        <v>19.9835285223885</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11.0908358825157</v>
+        <v>9.03906725111957</v>
       </c>
       <c r="B156" t="n">
-        <v>9.7906216895219</v>
+        <v>8.82898200402603</v>
       </c>
       <c r="C156" t="n">
-        <v>12.9736337512411</v>
+        <v>12.2105809472324</v>
       </c>
       <c r="D156" t="n">
-        <v>12.7927723452314</v>
+        <v>14.136948325097</v>
       </c>
       <c r="E156" t="n">
-        <v>14.1357236940015</v>
+        <v>13.5325474331444</v>
       </c>
       <c r="F156" t="n">
-        <v>15.17302078464</v>
+        <v>15.5630069747373</v>
       </c>
       <c r="G156" t="n">
-        <v>16.9392953547452</v>
+        <v>16.492389638378</v>
       </c>
       <c r="H156" t="n">
-        <v>18.2300810552039</v>
+        <v>15.1321320401422</v>
       </c>
       <c r="I156" t="n">
-        <v>18.3123153718082</v>
+        <v>17.8755331735402</v>
       </c>
       <c r="J156" t="n">
-        <v>20.0530716227098</v>
+        <v>17.8489667488099</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.96049779241352</v>
+        <v>11.5240792462417</v>
       </c>
       <c r="B157" t="n">
-        <v>10.9947649053602</v>
+        <v>10.9329156397781</v>
       </c>
       <c r="C157" t="n">
-        <v>12.6768071881016</v>
+        <v>12.5277597972511</v>
       </c>
       <c r="D157" t="n">
-        <v>13.3835723163232</v>
+        <v>11.8004144362126</v>
       </c>
       <c r="E157" t="n">
-        <v>14.1399268646231</v>
+        <v>13.1502147401009</v>
       </c>
       <c r="F157" t="n">
-        <v>15.4005063843165</v>
+        <v>14.9041644188113</v>
       </c>
       <c r="G157" t="n">
-        <v>15.5938750127564</v>
+        <v>15.9862386898241</v>
       </c>
       <c r="H157" t="n">
-        <v>18.3553673101984</v>
+        <v>16.8723871120748</v>
       </c>
       <c r="I157" t="n">
-        <v>18.3163062924013</v>
+        <v>18.6828791848149</v>
       </c>
       <c r="J157" t="n">
-        <v>18.9572191493318</v>
+        <v>19.2497071033802</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.6595010798207</v>
+        <v>-5.233809303666</v>
       </c>
       <c r="B158" t="n">
-        <v>11.9263615653412</v>
+        <v>-5.47145401760302</v>
       </c>
       <c r="C158" t="n">
-        <v>11.432143204309</v>
+        <v>-5.66279379193646</v>
       </c>
       <c r="D158" t="n">
-        <v>12.1485735753901</v>
+        <v>-6.5778297872605</v>
       </c>
       <c r="E158" t="n">
-        <v>13.5631932068606</v>
+        <v>-6.63431208280736</v>
       </c>
       <c r="F158" t="n">
-        <v>14.8509469635547</v>
+        <v>-7.32605209006519</v>
       </c>
       <c r="G158" t="n">
-        <v>16.2471477048034</v>
+        <v>15.4904543487875</v>
       </c>
       <c r="H158" t="n">
-        <v>16.9281623105418</v>
+        <v>16.1123553581206</v>
       </c>
       <c r="I158" t="n">
-        <v>16.9596219595675</v>
+        <v>18.5809267231325</v>
       </c>
       <c r="J158" t="n">
-        <v>19.6445166776905</v>
+        <v>18.2064712630192</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-5.13630216296</v>
+        <v>10.9510754254392</v>
       </c>
       <c r="B159" t="n">
-        <v>-5.40320352303696</v>
+        <v>11.3940581576399</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.28222120915373</v>
+        <v>11.5818860231679</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.61147383916695</v>
+        <v>13.5829096313839</v>
       </c>
       <c r="E159" t="n">
-        <v>-7.55626485562496</v>
+        <v>13.350675916096</v>
       </c>
       <c r="F159" t="n">
-        <v>-7.07841453342128</v>
+        <v>15.3856968623532</v>
       </c>
       <c r="G159" t="n">
-        <v>-8.20906370616872</v>
+        <v>17.5906925595501</v>
       </c>
       <c r="H159" t="n">
-        <v>-8.64934967449451</v>
+        <v>15.5325848619465</v>
       </c>
       <c r="I159" t="n">
-        <v>-8.80895731345987</v>
+        <v>18.1167728666085</v>
       </c>
       <c r="J159" t="n">
-        <v>-8.97172918479064</v>
+        <v>19.9837495669988</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-4.89474142378086</v>
+        <v>10.6338784063081</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.56751969191943</v>
+        <v>11.0370943986714</v>
       </c>
       <c r="C160" t="n">
-        <v>-6.19850501596906</v>
+        <v>13.0707116216589</v>
       </c>
       <c r="D160" t="n">
-        <v>-6.58580039902216</v>
+        <v>14.0659938374037</v>
       </c>
       <c r="E160" t="n">
-        <v>-7.29274953341316</v>
+        <v>14.0805011468372</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.34622277558381</v>
+        <v>15.4556720301666</v>
       </c>
       <c r="G160" t="n">
-        <v>-8.39862448902286</v>
+        <v>15.7142657895637</v>
       </c>
       <c r="H160" t="n">
-        <v>-8.79368581750715</v>
+        <v>-8.49607558274714</v>
       </c>
       <c r="I160" t="n">
-        <v>-8.68202916458008</v>
+        <v>-8.99333438532239</v>
       </c>
       <c r="J160" t="n">
-        <v>-9.60353706836565</v>
+        <v>-9.66515008423087</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-4.69039445737973</v>
+        <v>10.0873148002551</v>
       </c>
       <c r="B161" t="n">
-        <v>-5.86665033674077</v>
+        <v>10.8344678750943</v>
       </c>
       <c r="C161" t="n">
-        <v>-6.35523920833407</v>
+        <v>11.8973199350423</v>
       </c>
       <c r="D161" t="n">
-        <v>-6.61547092212142</v>
+        <v>13.1663926754654</v>
       </c>
       <c r="E161" t="n">
-        <v>-7.5366362630138</v>
+        <v>13.8816670603204</v>
       </c>
       <c r="F161" t="n">
-        <v>-7.18983048223482</v>
+        <v>13.5617403899571</v>
       </c>
       <c r="G161" t="n">
-        <v>16.2329971104898</v>
+        <v>15.9050994410883</v>
       </c>
       <c r="H161" t="n">
-        <v>16.0795991052317</v>
+        <v>17.2286452353023</v>
       </c>
       <c r="I161" t="n">
-        <v>16.6312250285376</v>
+        <v>18.6026293465147</v>
       </c>
       <c r="J161" t="n">
-        <v>20.0406335275154</v>
+        <v>18.1903998121981</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.9916298919682</v>
+        <v>11.6016738459175</v>
       </c>
       <c r="B162" t="n">
-        <v>11.7628446678299</v>
+        <v>12.1604151536185</v>
       </c>
       <c r="C162" t="n">
-        <v>11.5490743125002</v>
+        <v>11.5350402602055</v>
       </c>
       <c r="D162" t="n">
-        <v>12.0395016396352</v>
+        <v>12.3139333415053</v>
       </c>
       <c r="E162" t="n">
-        <v>14.6985856664985</v>
+        <v>13.2388446725548</v>
       </c>
       <c r="F162" t="n">
-        <v>-7.40916322709443</v>
+        <v>14.7173991573026</v>
       </c>
       <c r="G162" t="n">
-        <v>-8.06791532503984</v>
+        <v>14.6483424345636</v>
       </c>
       <c r="H162" t="n">
-        <v>17.4165054647422</v>
+        <v>15.4939890722516</v>
       </c>
       <c r="I162" t="n">
-        <v>16.2195490723849</v>
+        <v>19.1427185772745</v>
       </c>
       <c r="J162" t="n">
-        <v>18.252988744272</v>
+        <v>18.4121544494594</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9.67241836659775</v>
+        <v>8.88429009832333</v>
       </c>
       <c r="B163" t="n">
-        <v>11.1144289213534</v>
+        <v>10.9695031236194</v>
       </c>
       <c r="C163" t="n">
-        <v>11.6098847665393</v>
+        <v>12.2878424374062</v>
       </c>
       <c r="D163" t="n">
-        <v>12.4737839626609</v>
+        <v>12.9994098356608</v>
       </c>
       <c r="E163" t="n">
-        <v>12.315730225381</v>
+        <v>14.8381324660792</v>
       </c>
       <c r="F163" t="n">
-        <v>14.8123295410713</v>
+        <v>13.7103226779987</v>
       </c>
       <c r="G163" t="n">
-        <v>-7.59414753086678</v>
+        <v>14.6677429199678</v>
       </c>
       <c r="H163" t="n">
-        <v>-8.67772749281494</v>
+        <v>17.7768280437733</v>
       </c>
       <c r="I163" t="n">
-        <v>-8.82834053576768</v>
+        <v>18.1340297206804</v>
       </c>
       <c r="J163" t="n">
-        <v>-9.64588615461722</v>
+        <v>19.8761308531005</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-5.29600191132697</v>
+        <v>9.96208282674029</v>
       </c>
       <c r="B164" t="n">
-        <v>-5.7690354401702</v>
+        <v>11.6466739584842</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.72397386507371</v>
+        <v>11.0336022894298</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.2943792687541</v>
+        <v>12.7610242857589</v>
       </c>
       <c r="E164" t="n">
-        <v>-6.9586569617487</v>
+        <v>14.2524887851241</v>
       </c>
       <c r="F164" t="n">
-        <v>-7.74750184141232</v>
+        <v>16.0190553852742</v>
       </c>
       <c r="G164" t="n">
-        <v>15.4362034292212</v>
+        <v>15.0610096426749</v>
       </c>
       <c r="H164" t="n">
-        <v>18.5803315306764</v>
+        <v>16.8132654436811</v>
       </c>
       <c r="I164" t="n">
-        <v>18.7837653680203</v>
+        <v>17.9554045052748</v>
       </c>
       <c r="J164" t="n">
-        <v>19.5880646815325</v>
+        <v>18.7076193049924</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8.7969007576515</v>
+        <v>9.74904989846366</v>
       </c>
       <c r="B165" t="n">
-        <v>12.7093129908264</v>
+        <v>-5.76954494914459</v>
       </c>
       <c r="C165" t="n">
-        <v>12.4358411171485</v>
+        <v>-6.02154230469308</v>
       </c>
       <c r="D165" t="n">
-        <v>12.8897475326421</v>
+        <v>-7.02239778829017</v>
       </c>
       <c r="E165" t="n">
-        <v>14.4617756157462</v>
+        <v>-7.08410960516186</v>
       </c>
       <c r="F165" t="n">
-        <v>14.4563935922429</v>
+        <v>-7.59312674333802</v>
       </c>
       <c r="G165" t="n">
-        <v>15.3260588356627</v>
+        <v>-8.06636046775855</v>
       </c>
       <c r="H165" t="n">
-        <v>17.3314944574786</v>
+        <v>-8.23788908650593</v>
       </c>
       <c r="I165" t="n">
-        <v>-8.60303277313613</v>
+        <v>-8.5597199692676</v>
       </c>
       <c r="J165" t="n">
-        <v>-10.0171871669652</v>
+        <v>-9.61742207116951</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.6558181489943</v>
+        <v>10.2771018235697</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.60349293281567</v>
+        <v>11.1894380930397</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.99085945641546</v>
+        <v>11.6122393831232</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.6905078869879</v>
+        <v>13.3250939178886</v>
       </c>
       <c r="E166" t="n">
-        <v>-6.73631325801167</v>
+        <v>13.5386599089483</v>
       </c>
       <c r="F166" t="n">
-        <v>-7.52458299990628</v>
+        <v>15.0596584755734</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.66812551094393</v>
+        <v>15.4980953610396</v>
       </c>
       <c r="H166" t="n">
-        <v>-8.76990779608824</v>
+        <v>18.3821876125225</v>
       </c>
       <c r="I166" t="n">
-        <v>-8.77798961985082</v>
+        <v>18.0763626583059</v>
       </c>
       <c r="J166" t="n">
-        <v>-9.77945584023309</v>
+        <v>18.0753108062941</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8.91061050996693</v>
+        <v>9.9392861330181</v>
       </c>
       <c r="B167" t="n">
-        <v>11.5606658631951</v>
+        <v>11.8306138853327</v>
       </c>
       <c r="C167" t="n">
-        <v>11.157048205293</v>
+        <v>12.4418293367445</v>
       </c>
       <c r="D167" t="n">
-        <v>12.9749632958581</v>
+        <v>11.8112320367214</v>
       </c>
       <c r="E167" t="n">
-        <v>14.4731884399946</v>
+        <v>14.7821779058064</v>
       </c>
       <c r="F167" t="n">
-        <v>14.5403679590336</v>
+        <v>15.2131366805454</v>
       </c>
       <c r="G167" t="n">
-        <v>15.917972971951</v>
+        <v>15.9038681854974</v>
       </c>
       <c r="H167" t="n">
-        <v>-8.60582154541279</v>
+        <v>15.720773263654</v>
       </c>
       <c r="I167" t="n">
-        <v>18.1968554829617</v>
+        <v>19.1966392355397</v>
       </c>
       <c r="J167" t="n">
-        <v>20.3769826494071</v>
+        <v>18.3205463901939</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.04405888246482</v>
+        <v>9.72882178724143</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.49779875031353</v>
+        <v>-5.75050407165103</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.06326492694966</v>
+        <v>-6.12847719021866</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.52875352710812</v>
+        <v>-6.60049794818053</v>
       </c>
       <c r="E168" t="n">
-        <v>-7.17157871174046</v>
+        <v>-7.13980675702074</v>
       </c>
       <c r="F168" t="n">
-        <v>-7.10769488036076</v>
+        <v>-8.0760267617776</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.74925834573546</v>
+        <v>-7.84225787222069</v>
       </c>
       <c r="H168" t="n">
-        <v>-7.87331839763584</v>
+        <v>-8.65101913058514</v>
       </c>
       <c r="I168" t="n">
-        <v>-9.32602173243662</v>
+        <v>-8.9961696420288</v>
       </c>
       <c r="J168" t="n">
-        <v>-9.6526139191339</v>
+        <v>-9.88457058176047</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.0509768019659</v>
+        <v>11.3861790380672</v>
       </c>
       <c r="B169" t="n">
-        <v>10.472338125225</v>
+        <v>10.4060865962728</v>
       </c>
       <c r="C169" t="n">
-        <v>10.4686304584227</v>
+        <v>11.916390114748</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.23858034993227</v>
+        <v>12.0621458108042</v>
       </c>
       <c r="E169" t="n">
-        <v>-6.95574477096484</v>
+        <v>14.4962309273565</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.72125964337103</v>
+        <v>14.1161809203112</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.67340265787286</v>
+        <v>15.7719394658902</v>
       </c>
       <c r="H169" t="n">
-        <v>-8.5857621113723</v>
+        <v>15.1975690917004</v>
       </c>
       <c r="I169" t="n">
-        <v>-8.92627743907821</v>
+        <v>19.3882574512999</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.59556824743988</v>
+        <v>18.7077095558384</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8.39878275149884</v>
+        <v>9.81523338264395</v>
       </c>
       <c r="B170" t="n">
-        <v>10.011269060688</v>
+        <v>-5.66975120485885</v>
       </c>
       <c r="C170" t="n">
-        <v>11.6468568161641</v>
+        <v>-5.95721972370626</v>
       </c>
       <c r="D170" t="n">
-        <v>11.9620164364185</v>
+        <v>-6.40570364138422</v>
       </c>
       <c r="E170" t="n">
-        <v>13.1134957814579</v>
+        <v>-6.82288409208805</v>
       </c>
       <c r="F170" t="n">
-        <v>15.4872896796627</v>
+        <v>-7.28036204466566</v>
       </c>
       <c r="G170" t="n">
-        <v>15.4124724205015</v>
+        <v>-8.17867732392837</v>
       </c>
       <c r="H170" t="n">
-        <v>17.4768259612941</v>
+        <v>-8.36536783870487</v>
       </c>
       <c r="I170" t="n">
-        <v>-8.23505485038048</v>
+        <v>-8.873423310007</v>
       </c>
       <c r="J170" t="n">
-        <v>-9.53770074285582</v>
+        <v>-9.39345045543014</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.4187075051918</v>
+        <v>-4.85702404200273</v>
       </c>
       <c r="B171" t="n">
-        <v>12.0737178224445</v>
+        <v>-5.42054639411167</v>
       </c>
       <c r="C171" t="n">
-        <v>-5.68042858999213</v>
+        <v>-5.87470006224216</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.62337440786371</v>
+        <v>-6.49639596277765</v>
       </c>
       <c r="E171" t="n">
-        <v>-6.79446808817346</v>
+        <v>-6.93827303252137</v>
       </c>
       <c r="F171" t="n">
-        <v>-7.39270719232445</v>
+        <v>-7.68011230560736</v>
       </c>
       <c r="G171" t="n">
-        <v>-8.52042153758924</v>
+        <v>-8.13644041163754</v>
       </c>
       <c r="H171" t="n">
-        <v>-8.32145648666292</v>
+        <v>-8.55274779052461</v>
       </c>
       <c r="I171" t="n">
-        <v>-8.98778174272791</v>
+        <v>-8.66061410417726</v>
       </c>
       <c r="J171" t="n">
-        <v>-9.5349618448795</v>
+        <v>-8.99700091781553</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.99003464814047</v>
+        <v>10.2144258381824</v>
       </c>
       <c r="B172" t="n">
-        <v>11.5947164239778</v>
+        <v>11.3565735023449</v>
       </c>
       <c r="C172" t="n">
-        <v>12.0099258621564</v>
+        <v>12.891000972387</v>
       </c>
       <c r="D172" t="n">
-        <v>13.2663464246126</v>
+        <v>-6.81710712281213</v>
       </c>
       <c r="E172" t="n">
-        <v>14.8717001610992</v>
+        <v>-6.91344312289637</v>
       </c>
       <c r="F172" t="n">
-        <v>15.5462784785777</v>
+        <v>-7.33286565983079</v>
       </c>
       <c r="G172" t="n">
-        <v>17.4091313112767</v>
+        <v>-7.71878646048973</v>
       </c>
       <c r="H172" t="n">
-        <v>16.9865624035753</v>
+        <v>-8.28808401253984</v>
       </c>
       <c r="I172" t="n">
-        <v>16.8623471893811</v>
+        <v>-9.0612008259147</v>
       </c>
       <c r="J172" t="n">
-        <v>17.7235053531029</v>
+        <v>-9.74070011429237</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-5.30036717324108</v>
+        <v>8.67060069510522</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.64088010655142</v>
+        <v>-5.34844564835501</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.07546457959302</v>
+        <v>-6.00341023113227</v>
       </c>
       <c r="D173" t="n">
-        <v>-6.67715590531159</v>
+        <v>-6.63516241598321</v>
       </c>
       <c r="E173" t="n">
-        <v>-6.75239285776393</v>
+        <v>-7.18603904310657</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.62047891307642</v>
+        <v>-7.43757259659309</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.88680117601566</v>
+        <v>-7.76532895058469</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.69218529441637</v>
+        <v>-8.5406243793221</v>
       </c>
       <c r="I173" t="n">
-        <v>-9.3992813239572</v>
+        <v>-9.53307033107859</v>
       </c>
       <c r="J173" t="n">
-        <v>-9.9039626906337</v>
+        <v>-9.4838029651241</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10.9841928301846</v>
+        <v>9.82649519995355</v>
       </c>
       <c r="B174" t="n">
-        <v>10.2872124062276</v>
+        <v>10.3420542991047</v>
       </c>
       <c r="C174" t="n">
-        <v>11.2133537453551</v>
+        <v>11.5500232800241</v>
       </c>
       <c r="D174" t="n">
-        <v>13.0330309291089</v>
+        <v>12.0996883114252</v>
       </c>
       <c r="E174" t="n">
-        <v>13.8791428041648</v>
+        <v>14.1334419106612</v>
       </c>
       <c r="F174" t="n">
-        <v>13.669295820251</v>
+        <v>14.7763697503856</v>
       </c>
       <c r="G174" t="n">
-        <v>15.9506522926397</v>
+        <v>15.8204844464464</v>
       </c>
       <c r="H174" t="n">
-        <v>15.77489857702</v>
+        <v>17.1948291701631</v>
       </c>
       <c r="I174" t="n">
-        <v>18.2160236009613</v>
+        <v>16.2621790081548</v>
       </c>
       <c r="J174" t="n">
-        <v>18.850517108029</v>
+        <v>18.7180381177959</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.9727266404653</v>
+        <v>9.05119446650507</v>
       </c>
       <c r="B175" t="n">
-        <v>10.587034715426</v>
+        <v>11.7148561626079</v>
       </c>
       <c r="C175" t="n">
-        <v>12.8472251225058</v>
+        <v>11.251043823551</v>
       </c>
       <c r="D175" t="n">
-        <v>13.5407654650656</v>
+        <v>13.1957304599951</v>
       </c>
       <c r="E175" t="n">
-        <v>14.3092925142371</v>
+        <v>14.1305707137673</v>
       </c>
       <c r="F175" t="n">
-        <v>13.7758351356489</v>
+        <v>14.0979599832504</v>
       </c>
       <c r="G175" t="n">
-        <v>15.6573763993524</v>
+        <v>16.0926047290095</v>
       </c>
       <c r="H175" t="n">
-        <v>17.3489341131696</v>
+        <v>17.7505574627141</v>
       </c>
       <c r="I175" t="n">
-        <v>18.0839798583155</v>
+        <v>18.1480576632262</v>
       </c>
       <c r="J175" t="n">
-        <v>19.1248112344728</v>
+        <v>-9.67545713452673</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>10.3423831324998</v>
+        <v>-5.29108431545729</v>
       </c>
       <c r="B176" t="n">
-        <v>11.2201563207242</v>
+        <v>-5.50330604618018</v>
       </c>
       <c r="C176" t="n">
-        <v>11.2981920503276</v>
+        <v>-6.32469892430438</v>
       </c>
       <c r="D176" t="n">
-        <v>13.4637724560401</v>
+        <v>-6.74981746241504</v>
       </c>
       <c r="E176" t="n">
-        <v>13.6193072799524</v>
+        <v>-6.53431685610315</v>
       </c>
       <c r="F176" t="n">
-        <v>14.3435872861321</v>
+        <v>-7.6505680313888</v>
       </c>
       <c r="G176" t="n">
-        <v>16.4761136063965</v>
+        <v>-7.89093764528813</v>
       </c>
       <c r="H176" t="n">
-        <v>16.651249931479</v>
+        <v>-8.84812693127821</v>
       </c>
       <c r="I176" t="n">
-        <v>19.0663097033941</v>
+        <v>-8.95058656984186</v>
       </c>
       <c r="J176" t="n">
-        <v>18.3464798854198</v>
+        <v>-9.35697272267623</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.0371746832514</v>
+        <v>9.00729232968137</v>
       </c>
       <c r="B177" t="n">
-        <v>10.8410982825963</v>
+        <v>10.9698232655585</v>
       </c>
       <c r="C177" t="n">
-        <v>11.5219880787115</v>
+        <v>12.1367004365828</v>
       </c>
       <c r="D177" t="n">
-        <v>13.3031933754629</v>
+        <v>12.5997194273</v>
       </c>
       <c r="E177" t="n">
-        <v>14.7803407567348</v>
+        <v>15.08083212273</v>
       </c>
       <c r="F177" t="n">
-        <v>14.9901505066431</v>
+        <v>13.0874069044399</v>
       </c>
       <c r="G177" t="n">
-        <v>14.7189346454628</v>
+        <v>14.9675474243862</v>
       </c>
       <c r="H177" t="n">
-        <v>15.4484277795438</v>
+        <v>-8.65341132316015</v>
       </c>
       <c r="I177" t="n">
-        <v>18.5017416549161</v>
+        <v>-8.86898157022376</v>
       </c>
       <c r="J177" t="n">
-        <v>17.9961211936978</v>
+        <v>-9.99754916224465</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.11064509967192</v>
+        <v>11.040977854802</v>
       </c>
       <c r="B178" t="n">
-        <v>10.3040661943462</v>
+        <v>11.7572564095347</v>
       </c>
       <c r="C178" t="n">
-        <v>11.8593854136259</v>
+        <v>11.4518194128033</v>
       </c>
       <c r="D178" t="n">
-        <v>13.224930510285</v>
+        <v>13.4964253537591</v>
       </c>
       <c r="E178" t="n">
-        <v>12.6605521330511</v>
+        <v>12.1158337571064</v>
       </c>
       <c r="F178" t="n">
-        <v>13.6268774278626</v>
+        <v>14.9940736936321</v>
       </c>
       <c r="G178" t="n">
-        <v>14.5923779304283</v>
+        <v>16.3752167691773</v>
       </c>
       <c r="H178" t="n">
-        <v>15.6059874341284</v>
+        <v>17.153832316608</v>
       </c>
       <c r="I178" t="n">
-        <v>17.8730923793544</v>
+        <v>-8.77463476145403</v>
       </c>
       <c r="J178" t="n">
-        <v>18.1923880665899</v>
+        <v>-9.46306390292268</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.1961995510129</v>
+        <v>10.9809518727223</v>
       </c>
       <c r="B179" t="n">
-        <v>10.2996846430099</v>
+        <v>11.6088501627673</v>
       </c>
       <c r="C179" t="n">
-        <v>12.549641390754</v>
+        <v>12.0722808166306</v>
       </c>
       <c r="D179" t="n">
-        <v>-6.42447660463504</v>
+        <v>13.916862505843</v>
       </c>
       <c r="E179" t="n">
-        <v>-6.54440514079155</v>
+        <v>14.3687524159757</v>
       </c>
       <c r="F179" t="n">
-        <v>-7.7300835495714</v>
+        <v>14.7133752933434</v>
       </c>
       <c r="G179" t="n">
-        <v>-7.97376985338044</v>
+        <v>16.3789379075409</v>
       </c>
       <c r="H179" t="n">
-        <v>-8.50143818506142</v>
+        <v>15.7838959290442</v>
       </c>
       <c r="I179" t="n">
-        <v>-9.14316089551503</v>
+        <v>17.5092403601329</v>
       </c>
       <c r="J179" t="n">
-        <v>-9.6810942336675</v>
+        <v>19.9845713466165</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11.7029835798547</v>
+        <v>-4.86390068148203</v>
       </c>
       <c r="B180" t="n">
-        <v>10.5363217730276</v>
+        <v>-5.54151420545337</v>
       </c>
       <c r="C180" t="n">
-        <v>11.7909215168135</v>
+        <v>-6.05004667740123</v>
       </c>
       <c r="D180" t="n">
-        <v>14.0541411414447</v>
+        <v>-6.86242813665874</v>
       </c>
       <c r="E180" t="n">
-        <v>13.0103018556934</v>
+        <v>-7.2620656280252</v>
       </c>
       <c r="F180" t="n">
-        <v>15.5243570833506</v>
+        <v>-7.91440184867608</v>
       </c>
       <c r="G180" t="n">
-        <v>15.9611240264327</v>
+        <v>-7.76164080913373</v>
       </c>
       <c r="H180" t="n">
-        <v>16.3140029204252</v>
+        <v>-8.67725466703306</v>
       </c>
       <c r="I180" t="n">
-        <v>-9.14488278525935</v>
+        <v>-9.46192846609113</v>
       </c>
       <c r="J180" t="n">
-        <v>-9.66274955832751</v>
+        <v>-9.67887629349122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-5.37925275013612</v>
+        <v>11.9096477270095</v>
       </c>
       <c r="B181" t="n">
-        <v>-6.12040206575721</v>
+        <v>12.0222884810951</v>
       </c>
       <c r="C181" t="n">
-        <v>-6.27370612937405</v>
+        <v>11.9021404551618</v>
       </c>
       <c r="D181" t="n">
-        <v>-6.32930715601982</v>
+        <v>11.7480145417577</v>
       </c>
       <c r="E181" t="n">
-        <v>-6.94416181999879</v>
+        <v>14.4441881317446</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.3297349280075</v>
+        <v>15.453501244408</v>
       </c>
       <c r="G181" t="n">
-        <v>-7.77029855877858</v>
+        <v>16.8191868297025</v>
       </c>
       <c r="H181" t="n">
-        <v>-8.87327752694555</v>
+        <v>16.3739338565293</v>
       </c>
       <c r="I181" t="n">
-        <v>-9.31176403385677</v>
+        <v>17.3964734186598</v>
       </c>
       <c r="J181" t="n">
-        <v>-9.41508863002866</v>
+        <v>18.222843565162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-5.1275518504609</v>
+        <v>9.89685968556909</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.66031376048135</v>
+        <v>10.3466425839351</v>
       </c>
       <c r="C182" t="n">
-        <v>-6.08358407197803</v>
+        <v>11.2229276480437</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.55076319997695</v>
+        <v>13.3785058835915</v>
       </c>
       <c r="E182" t="n">
-        <v>-7.18356228608153</v>
+        <v>13.7215000000843</v>
       </c>
       <c r="F182" t="n">
-        <v>-7.626788603959</v>
+        <v>16.1721625206033</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.7433239840065</v>
+        <v>15.7455927467724</v>
       </c>
       <c r="H182" t="n">
-        <v>-8.46740783413575</v>
+        <v>17.6710015081557</v>
       </c>
       <c r="I182" t="n">
-        <v>-8.67418229685916</v>
+        <v>17.7468673512796</v>
       </c>
       <c r="J182" t="n">
-        <v>-9.12150801940118</v>
+        <v>18.5145411192589</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.95408994550172</v>
+        <v>9.07929630363275</v>
       </c>
       <c r="B183" t="n">
-        <v>10.1882584355182</v>
+        <v>10.8295415236601</v>
       </c>
       <c r="C183" t="n">
-        <v>12.5020220462618</v>
+        <v>-6.17191810241104</v>
       </c>
       <c r="D183" t="n">
-        <v>12.8144003967561</v>
+        <v>-6.27473857002411</v>
       </c>
       <c r="E183" t="n">
-        <v>13.3128266931941</v>
+        <v>-7.03638172796642</v>
       </c>
       <c r="F183" t="n">
-        <v>15.3048631406225</v>
+        <v>-7.67446582926001</v>
       </c>
       <c r="G183" t="n">
-        <v>14.9995385401839</v>
+        <v>-8.33031825883536</v>
       </c>
       <c r="H183" t="n">
-        <v>17.6495531154922</v>
+        <v>-9.03317312301299</v>
       </c>
       <c r="I183" t="n">
-        <v>17.2881486500784</v>
+        <v>-9.46391750065543</v>
       </c>
       <c r="J183" t="n">
-        <v>19.0815491623711</v>
+        <v>-9.5659761798305</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.1810586303086</v>
+        <v>10.7838910570174</v>
       </c>
       <c r="B184" t="n">
-        <v>-5.60261350382566</v>
+        <v>-5.58366156152041</v>
       </c>
       <c r="C184" t="n">
-        <v>-6.03947955752996</v>
+        <v>-6.11918062532757</v>
       </c>
       <c r="D184" t="n">
-        <v>-6.74043543483579</v>
+        <v>-6.64440982086574</v>
       </c>
       <c r="E184" t="n">
-        <v>-6.83018298335039</v>
+        <v>-7.0668536651153</v>
       </c>
       <c r="F184" t="n">
-        <v>-7.42404770107769</v>
+        <v>-8.13023401905076</v>
       </c>
       <c r="G184" t="n">
-        <v>15.5184588281262</v>
+        <v>-7.8818190130392</v>
       </c>
       <c r="H184" t="n">
-        <v>16.2326862355496</v>
+        <v>-8.47394588897814</v>
       </c>
       <c r="I184" t="n">
-        <v>17.9054520377175</v>
+        <v>-8.62233626267385</v>
       </c>
       <c r="J184" t="n">
-        <v>18.7256197438834</v>
+        <v>-9.47563096187391</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.4197152646675</v>
+        <v>9.63430630794389</v>
       </c>
       <c r="B185" t="n">
-        <v>9.40494903563394</v>
+        <v>11.0063120592268</v>
       </c>
       <c r="C185" t="n">
-        <v>11.473008166635</v>
+        <v>11.7930248848608</v>
       </c>
       <c r="D185" t="n">
-        <v>13.1333563717115</v>
+        <v>13.1228891105252</v>
       </c>
       <c r="E185" t="n">
-        <v>14.2635321348249</v>
+        <v>14.8635428985816</v>
       </c>
       <c r="F185" t="n">
-        <v>15.5783034402647</v>
+        <v>14.6983684067842</v>
       </c>
       <c r="G185" t="n">
-        <v>16.4917569298898</v>
+        <v>15.3326564701118</v>
       </c>
       <c r="H185" t="n">
-        <v>-8.67654282054719</v>
+        <v>16.1795132625405</v>
       </c>
       <c r="I185" t="n">
-        <v>-8.43789059986222</v>
+        <v>18.4202497959937</v>
       </c>
       <c r="J185" t="n">
-        <v>-9.01691482364385</v>
+        <v>20.1625422114194</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8.38987625137362</v>
+        <v>9.00991847024294</v>
       </c>
       <c r="B186" t="n">
-        <v>12.1804515633648</v>
+        <v>10.6695465298841</v>
       </c>
       <c r="C186" t="n">
-        <v>11.3660041156132</v>
+        <v>10.8551338865396</v>
       </c>
       <c r="D186" t="n">
-        <v>12.9519671700884</v>
+        <v>13.4643422637134</v>
       </c>
       <c r="E186" t="n">
-        <v>14.1832474068818</v>
+        <v>14.662434130799</v>
       </c>
       <c r="F186" t="n">
-        <v>14.3770072020024</v>
+        <v>14.9080504331964</v>
       </c>
       <c r="G186" t="n">
-        <v>16.0090692065025</v>
+        <v>14.5799727877432</v>
       </c>
       <c r="H186" t="n">
-        <v>16.5851785318524</v>
+        <v>17.8390404739411</v>
       </c>
       <c r="I186" t="n">
-        <v>19.183532095817</v>
+        <v>18.3809373860454</v>
       </c>
       <c r="J186" t="n">
-        <v>18.1616925608775</v>
+        <v>19.7311095590374</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.3143612147761</v>
+        <v>-5.1244268566731</v>
       </c>
       <c r="B187" t="n">
-        <v>11.3118831025047</v>
+        <v>-5.75784554508658</v>
       </c>
       <c r="C187" t="n">
-        <v>12.2583451959293</v>
+        <v>-6.41285418303003</v>
       </c>
       <c r="D187" t="n">
-        <v>13.4650689762388</v>
+        <v>-6.37474776284558</v>
       </c>
       <c r="E187" t="n">
-        <v>14.165679663164</v>
+        <v>-7.10826853843383</v>
       </c>
       <c r="F187" t="n">
-        <v>14.1046263841845</v>
+        <v>-7.67228186193926</v>
       </c>
       <c r="G187" t="n">
-        <v>15.5580961956288</v>
+        <v>-7.98055688703113</v>
       </c>
       <c r="H187" t="n">
-        <v>17.220977742753</v>
+        <v>-8.46175204101039</v>
       </c>
       <c r="I187" t="n">
-        <v>17.7328537520389</v>
+        <v>-9.2398105534239</v>
       </c>
       <c r="J187" t="n">
-        <v>18.9238865012042</v>
+        <v>-9.1714401752117</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8.54462806335074</v>
+        <v>9.3585380382946</v>
       </c>
       <c r="B188" t="n">
-        <v>9.90184451360661</v>
+        <v>11.1537017684932</v>
       </c>
       <c r="C188" t="n">
-        <v>12.2030726246211</v>
+        <v>13.7867401857412</v>
       </c>
       <c r="D188" t="n">
-        <v>13.1555739323392</v>
+        <v>13.1708221765952</v>
       </c>
       <c r="E188" t="n">
-        <v>14.7021912239025</v>
+        <v>14.037858993115</v>
       </c>
       <c r="F188" t="n">
-        <v>13.6315695298638</v>
+        <v>14.8160469176083</v>
       </c>
       <c r="G188" t="n">
-        <v>16.1604959026462</v>
+        <v>15.9090066151708</v>
       </c>
       <c r="H188" t="n">
-        <v>17.2736863368505</v>
+        <v>17.7643927184556</v>
       </c>
       <c r="I188" t="n">
-        <v>18.2683551651715</v>
+        <v>17.9291596505632</v>
       </c>
       <c r="J188" t="n">
-        <v>19.3564569508003</v>
+        <v>19.9533130684328</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11.6971356056817</v>
+        <v>10.6507427482606</v>
       </c>
       <c r="B189" t="n">
-        <v>9.84563320399948</v>
+        <v>11.3799861220469</v>
       </c>
       <c r="C189" t="n">
-        <v>12.1548112356479</v>
+        <v>12.283151681359</v>
       </c>
       <c r="D189" t="n">
-        <v>13.0431531149817</v>
+        <v>13.0599318647318</v>
       </c>
       <c r="E189" t="n">
-        <v>14.3046805517016</v>
+        <v>14.508303796484</v>
       </c>
       <c r="F189" t="n">
-        <v>15.3169190175148</v>
+        <v>16.4414927494787</v>
       </c>
       <c r="G189" t="n">
-        <v>15.6422120554233</v>
+        <v>17.305459305573</v>
       </c>
       <c r="H189" t="n">
-        <v>16.9940315173435</v>
+        <v>16.915981893982</v>
       </c>
       <c r="I189" t="n">
-        <v>16.7448539465169</v>
+        <v>-8.72549251449998</v>
       </c>
       <c r="J189" t="n">
-        <v>19.1604894601485</v>
+        <v>-9.65115346457168</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.37473476353873</v>
+        <v>9.9695016556208</v>
       </c>
       <c r="B190" t="n">
-        <v>11.5661380719839</v>
+        <v>10.6072417007974</v>
       </c>
       <c r="C190" t="n">
-        <v>13.024693279895</v>
+        <v>11.2257633374893</v>
       </c>
       <c r="D190" t="n">
-        <v>13.4981508956469</v>
+        <v>11.8446822547508</v>
       </c>
       <c r="E190" t="n">
-        <v>-6.86201363047572</v>
+        <v>14.2286144758251</v>
       </c>
       <c r="F190" t="n">
-        <v>-7.34712886770492</v>
+        <v>15.392230596462</v>
       </c>
       <c r="G190" t="n">
-        <v>-8.05088782876057</v>
+        <v>14.3775572776781</v>
       </c>
       <c r="H190" t="n">
-        <v>-8.25338608947691</v>
+        <v>16.5589079773683</v>
       </c>
       <c r="I190" t="n">
-        <v>-8.77123387834972</v>
+        <v>18.3681890518446</v>
       </c>
       <c r="J190" t="n">
-        <v>-9.47648210341708</v>
+        <v>18.5323357894489</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8.80099768712813</v>
+        <v>10.7571186418942</v>
       </c>
       <c r="B191" t="n">
-        <v>10.0985329216457</v>
+        <v>11.0381219351586</v>
       </c>
       <c r="C191" t="n">
-        <v>13.3458581886925</v>
+        <v>12.1049870938496</v>
       </c>
       <c r="D191" t="n">
-        <v>13.968349112869</v>
+        <v>13.8770610348144</v>
       </c>
       <c r="E191" t="n">
-        <v>13.3687843254435</v>
+        <v>13.8854658683619</v>
       </c>
       <c r="F191" t="n">
-        <v>15.9546019869133</v>
+        <v>14.1487579961643</v>
       </c>
       <c r="G191" t="n">
-        <v>15.7034021210092</v>
+        <v>16.4943488580615</v>
       </c>
       <c r="H191" t="n">
-        <v>17.5363208990007</v>
+        <v>16.7460997080659</v>
       </c>
       <c r="I191" t="n">
-        <v>17.2679017105853</v>
+        <v>17.9753502592773</v>
       </c>
       <c r="J191" t="n">
-        <v>19.7636073227021</v>
+        <v>20.1461888472555</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.7184361013241</v>
+        <v>-5.0017984915761</v>
       </c>
       <c r="B192" t="n">
-        <v>-5.19227880317436</v>
+        <v>-5.66896587425236</v>
       </c>
       <c r="C192" t="n">
-        <v>-6.35186275968167</v>
+        <v>-5.9385242850718</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.79297778162762</v>
+        <v>-6.42812427939616</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.95735066657058</v>
+        <v>-7.02109097963686</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.5380728026831</v>
+        <v>-7.55978521952254</v>
       </c>
       <c r="G192" t="n">
-        <v>-8.03458717026013</v>
+        <v>-7.79324174018278</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.56198962892565</v>
+        <v>-8.53498534121705</v>
       </c>
       <c r="I192" t="n">
-        <v>-8.74382167198248</v>
+        <v>-9.14783143273734</v>
       </c>
       <c r="J192" t="n">
-        <v>19.0343139800292</v>
+        <v>-9.16546005934811</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.0360741822766</v>
+        <v>9.58751298649392</v>
       </c>
       <c r="B193" t="n">
-        <v>10.1922330262856</v>
+        <v>11.2261146018005</v>
       </c>
       <c r="C193" t="n">
-        <v>11.4434113325509</v>
+        <v>11.0111683750025</v>
       </c>
       <c r="D193" t="n">
-        <v>13.7315302530438</v>
+        <v>-6.67202855096985</v>
       </c>
       <c r="E193" t="n">
-        <v>14.0807632046238</v>
+        <v>-6.91282870558555</v>
       </c>
       <c r="F193" t="n">
-        <v>14.0665588556905</v>
+        <v>-7.71004597072011</v>
       </c>
       <c r="G193" t="n">
-        <v>15.8645909530215</v>
+        <v>-7.86569983701479</v>
       </c>
       <c r="H193" t="n">
-        <v>15.0545220779991</v>
+        <v>-8.79925453461432</v>
       </c>
       <c r="I193" t="n">
-        <v>17.2948004792902</v>
+        <v>-8.76558123104813</v>
       </c>
       <c r="J193" t="n">
-        <v>18.3686575266441</v>
+        <v>-9.56212799978547</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-5.10854407539633</v>
+        <v>-4.75781028453655</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.24599633442439</v>
+        <v>-5.17412300051646</v>
       </c>
       <c r="C194" t="n">
-        <v>-6.26831475804413</v>
+        <v>-6.01550667566076</v>
       </c>
       <c r="D194" t="n">
-        <v>-6.35337318326856</v>
+        <v>-6.1137490358887</v>
       </c>
       <c r="E194" t="n">
-        <v>-7.00295548053242</v>
+        <v>-7.09961871143841</v>
       </c>
       <c r="F194" t="n">
-        <v>-7.34833437422816</v>
+        <v>-7.5610054595125</v>
       </c>
       <c r="G194" t="n">
-        <v>-7.50236310437964</v>
+        <v>-8.00202020990944</v>
       </c>
       <c r="H194" t="n">
-        <v>-8.57327051708156</v>
+        <v>-8.1521081940188</v>
       </c>
       <c r="I194" t="n">
-        <v>-9.50144749873418</v>
+        <v>-9.25914426784987</v>
       </c>
       <c r="J194" t="n">
-        <v>-9.79278382838878</v>
+        <v>-9.37056549553755</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.9487825048049</v>
+        <v>11.0354328178262</v>
       </c>
       <c r="B195" t="n">
-        <v>9.64378524796065</v>
+        <v>11.9394033161825</v>
       </c>
       <c r="C195" t="n">
-        <v>12.5820844289019</v>
+        <v>10.9730222141077</v>
       </c>
       <c r="D195" t="n">
-        <v>13.8992101927128</v>
+        <v>13.0086456480535</v>
       </c>
       <c r="E195" t="n">
-        <v>13.713692118974</v>
+        <v>14.7295823078376</v>
       </c>
       <c r="F195" t="n">
-        <v>14.6117623766346</v>
+        <v>14.6010555341659</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.87388659044539</v>
+        <v>14.4345017516671</v>
       </c>
       <c r="H195" t="n">
-        <v>-8.31926414600358</v>
+        <v>17.9864300560543</v>
       </c>
       <c r="I195" t="n">
-        <v>-8.87430926574801</v>
+        <v>17.8480896658482</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.68308659151199</v>
+        <v>19.3504999977772</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.44924020647308</v>
+        <v>-4.90819107728686</v>
       </c>
       <c r="B196" t="n">
-        <v>10.9493751909464</v>
+        <v>-5.35029560831382</v>
       </c>
       <c r="C196" t="n">
-        <v>11.3544273393758</v>
+        <v>-6.28434820725526</v>
       </c>
       <c r="D196" t="n">
-        <v>12.3402192660398</v>
+        <v>-6.67693050054766</v>
       </c>
       <c r="E196" t="n">
-        <v>14.5936296530966</v>
+        <v>-7.23302013616086</v>
       </c>
       <c r="F196" t="n">
-        <v>15.5906760736075</v>
+        <v>-7.73717218025408</v>
       </c>
       <c r="G196" t="n">
-        <v>16.8131171072043</v>
+        <v>-8.16498963565128</v>
       </c>
       <c r="H196" t="n">
-        <v>16.7847787993624</v>
+        <v>-8.39428526205424</v>
       </c>
       <c r="I196" t="n">
-        <v>18.9835208665611</v>
+        <v>-8.75256581894381</v>
       </c>
       <c r="J196" t="n">
-        <v>19.4055785568088</v>
+        <v>-9.54554925144599</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.3239042097109</v>
+        <v>10.4301912822071</v>
       </c>
       <c r="B197" t="n">
-        <v>9.99639991029831</v>
+        <v>10.4284629500955</v>
       </c>
       <c r="C197" t="n">
-        <v>11.7525614342343</v>
+        <v>-6.03610638509708</v>
       </c>
       <c r="D197" t="n">
-        <v>12.4009565830718</v>
+        <v>-6.23843272312541</v>
       </c>
       <c r="E197" t="n">
-        <v>13.8468428335536</v>
+        <v>-7.27168638171224</v>
       </c>
       <c r="F197" t="n">
-        <v>14.4126712760223</v>
+        <v>-7.39981825995833</v>
       </c>
       <c r="G197" t="n">
-        <v>16.1121595087261</v>
+        <v>-8.42892947138291</v>
       </c>
       <c r="H197" t="n">
-        <v>-8.69514154477429</v>
+        <v>-8.59557296558455</v>
       </c>
       <c r="I197" t="n">
-        <v>-9.08859316440504</v>
+        <v>-8.64647782322496</v>
       </c>
       <c r="J197" t="n">
-        <v>-9.44264238701636</v>
+        <v>-9.87756764386904</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.04653659931125</v>
+        <v>-5.1967869914046</v>
       </c>
       <c r="B198" t="n">
-        <v>11.620990085646</v>
+        <v>-5.78847835541467</v>
       </c>
       <c r="C198" t="n">
-        <v>12.4823732975358</v>
+        <v>-6.23636338100167</v>
       </c>
       <c r="D198" t="n">
-        <v>13.2374071369224</v>
+        <v>-6.66648606038971</v>
       </c>
       <c r="E198" t="n">
-        <v>14.3233953850228</v>
+        <v>-7.34899761540021</v>
       </c>
       <c r="F198" t="n">
-        <v>15.4009475626712</v>
+        <v>-8.21118114154077</v>
       </c>
       <c r="G198" t="n">
-        <v>16.1987503206386</v>
+        <v>-7.90662490716761</v>
       </c>
       <c r="H198" t="n">
-        <v>16.9608700363013</v>
+        <v>-8.6984503840538</v>
       </c>
       <c r="I198" t="n">
-        <v>18.7471162358572</v>
+        <v>-9.26371274170875</v>
       </c>
       <c r="J198" t="n">
-        <v>17.3433792858464</v>
+        <v>-9.31658337057322</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.6108564799716</v>
+        <v>9.56901100263264</v>
       </c>
       <c r="B199" t="n">
-        <v>11.0004186356341</v>
+        <v>10.7012759465911</v>
       </c>
       <c r="C199" t="n">
-        <v>12.2463511270981</v>
+        <v>11.7239915751225</v>
       </c>
       <c r="D199" t="n">
-        <v>13.1349453895269</v>
+        <v>14.0420946598712</v>
       </c>
       <c r="E199" t="n">
-        <v>14.1434663355873</v>
+        <v>14.2903804458112</v>
       </c>
       <c r="F199" t="n">
-        <v>14.5924571979867</v>
+        <v>-7.49469695098969</v>
       </c>
       <c r="G199" t="n">
-        <v>16.3057096584595</v>
+        <v>-7.59158462595889</v>
       </c>
       <c r="H199" t="n">
-        <v>16.8189972166432</v>
+        <v>-8.83074211254714</v>
       </c>
       <c r="I199" t="n">
-        <v>18.45595557463</v>
+        <v>-9.04647498595639</v>
       </c>
       <c r="J199" t="n">
-        <v>19.1617774623535</v>
+        <v>-9.51261347896394</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-4.86595865183424</v>
+        <v>-4.9170731389892</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.26390893057224</v>
+        <v>-5.30552072453905</v>
       </c>
       <c r="C200" t="n">
-        <v>-6.04216367018052</v>
+        <v>-5.63859791339463</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.40186604159472</v>
+        <v>-6.72610725738326</v>
       </c>
       <c r="E200" t="n">
-        <v>-7.18556047401222</v>
+        <v>-7.57606659795962</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.2509101966423</v>
+        <v>-7.6424220676472</v>
       </c>
       <c r="G200" t="n">
-        <v>-8.39108968557452</v>
+        <v>-7.92019979976229</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.14322314211044</v>
+        <v>-8.4258173360473</v>
       </c>
       <c r="I200" t="n">
-        <v>-9.18014020701911</v>
+        <v>-8.75102808150035</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.55623541759015</v>
+        <v>-9.60897325379343</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10.4139295017324</v>
+        <v>10.037670092371</v>
       </c>
       <c r="B201" t="n">
-        <v>9.66326965822201</v>
+        <v>11.1734715811954</v>
       </c>
       <c r="C201" t="n">
-        <v>11.0558117028516</v>
+        <v>12.5369956575781</v>
       </c>
       <c r="D201" t="n">
-        <v>14.5239543578233</v>
+        <v>12.0910961210183</v>
       </c>
       <c r="E201" t="n">
-        <v>12.8365176080202</v>
+        <v>14.7432171098484</v>
       </c>
       <c r="F201" t="n">
-        <v>15.3747506843939</v>
+        <v>15.1120028526943</v>
       </c>
       <c r="G201" t="n">
-        <v>-8.2670253239327</v>
+        <v>14.673335582211</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.70094917191577</v>
+        <v>16.7327863390613</v>
       </c>
       <c r="I201" t="n">
-        <v>-9.01193952914622</v>
+        <v>18.1521022032563</v>
       </c>
       <c r="J201" t="n">
-        <v>-9.47419250458876</v>
+        <v>19.1245811700434</v>
       </c>
     </row>
   </sheetData>
